--- a/master_thesis/input/MLB_stats_2013.xlsx
+++ b/master_thesis/input/MLB_stats_2013.xlsx
@@ -4,18 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="PA&gt;=200" sheetId="1" r:id="rId1"/>
+    <sheet name="salary_UST" sheetId="2" r:id="rId2"/>
+    <sheet name="team_batting" sheetId="3" r:id="rId3"/>
+    <sheet name="team_pitching" sheetId="4" r:id="rId4"/>
+    <sheet name="team_standings" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3988" uniqueCount="985">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4436" uniqueCount="1237">
   <si>
     <t>#</t>
   </si>
@@ -2970,6 +2973,762 @@
   </si>
   <si>
     <t>Dean Anna</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Tm</t>
+  </si>
+  <si>
+    <t>Lg</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>W-L%</t>
+  </si>
+  <si>
+    <t>RA</t>
+  </si>
+  <si>
+    <t>Rdiff</t>
+  </si>
+  <si>
+    <t>SOS</t>
+  </si>
+  <si>
+    <t>SRS</t>
+  </si>
+  <si>
+    <t>pythWL</t>
+  </si>
+  <si>
+    <t>Luck</t>
+  </si>
+  <si>
+    <t>Inter</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Road</t>
+  </si>
+  <si>
+    <t>ExInn</t>
+  </si>
+  <si>
+    <t>1Run</t>
+  </si>
+  <si>
+    <t>vRHP</t>
+  </si>
+  <si>
+    <t>vLHP</t>
+  </si>
+  <si>
+    <t>≥.500</t>
+  </si>
+  <si>
+    <t>&lt;.500</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>101-61</t>
+  </si>
+  <si>
+    <t>54-27</t>
+  </si>
+  <si>
+    <t>43-38</t>
+  </si>
+  <si>
+    <t>20-16</t>
+  </si>
+  <si>
+    <t>78-42</t>
+  </si>
+  <si>
+    <t>19-23</t>
+  </si>
+  <si>
+    <t>39-36</t>
+  </si>
+  <si>
+    <t>58-29</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>100-62</t>
+  </si>
+  <si>
+    <t>53-28</t>
+  </si>
+  <si>
+    <t>44-37</t>
+  </si>
+  <si>
+    <t>21-21</t>
+  </si>
+  <si>
+    <t>65-43</t>
+  </si>
+  <si>
+    <t>32-22</t>
+  </si>
+  <si>
+    <t>53-43</t>
+  </si>
+  <si>
+    <t>44-22</t>
+  </si>
+  <si>
+    <t>98-64</t>
+  </si>
+  <si>
+    <t>56-25</t>
+  </si>
+  <si>
+    <t>40-41</t>
+  </si>
+  <si>
+    <t>27-20</t>
+  </si>
+  <si>
+    <t>71-50</t>
+  </si>
+  <si>
+    <t>25-16</t>
+  </si>
+  <si>
+    <t>39-24</t>
+  </si>
+  <si>
+    <t>57-42</t>
+  </si>
+  <si>
+    <t>96-66</t>
+  </si>
+  <si>
+    <t>52-29</t>
+  </si>
+  <si>
+    <t>30-20</t>
+  </si>
+  <si>
+    <t>64-44</t>
+  </si>
+  <si>
+    <t>40-34</t>
+  </si>
+  <si>
+    <t>56-32</t>
+  </si>
+  <si>
+    <t>88-74</t>
+  </si>
+  <si>
+    <t>50-31</t>
+  </si>
+  <si>
+    <t>29-23</t>
+  </si>
+  <si>
+    <t>76-55</t>
+  </si>
+  <si>
+    <t>18-13</t>
+  </si>
+  <si>
+    <t>54-34</t>
+  </si>
+  <si>
+    <t>99-63</t>
+  </si>
+  <si>
+    <t>51-30</t>
+  </si>
+  <si>
+    <t>42-39</t>
+  </si>
+  <si>
+    <t>20-26</t>
+  </si>
+  <si>
+    <t>66-46</t>
+  </si>
+  <si>
+    <t>27-23</t>
+  </si>
+  <si>
+    <t>48-40</t>
+  </si>
+  <si>
+    <t>45-29</t>
+  </si>
+  <si>
+    <t>89-73</t>
+  </si>
+  <si>
+    <t>47-34</t>
+  </si>
+  <si>
+    <t>45-36</t>
+  </si>
+  <si>
+    <t>25-21</t>
+  </si>
+  <si>
+    <t>66-43</t>
+  </si>
+  <si>
+    <t>26-27</t>
+  </si>
+  <si>
+    <t>34-31</t>
+  </si>
+  <si>
+    <t>58-39</t>
+  </si>
+  <si>
+    <t>90-72</t>
+  </si>
+  <si>
+    <t>41-40</t>
+  </si>
+  <si>
+    <t>30-17</t>
+  </si>
+  <si>
+    <t>56-50</t>
+  </si>
+  <si>
+    <t>36-20</t>
+  </si>
+  <si>
+    <t>36-52</t>
+  </si>
+  <si>
+    <t>56-18</t>
+  </si>
+  <si>
+    <t>87-76</t>
+  </si>
+  <si>
+    <t>41-41</t>
+  </si>
+  <si>
+    <t>26-21</t>
+  </si>
+  <si>
+    <t>62-48</t>
+  </si>
+  <si>
+    <t>30-23</t>
+  </si>
+  <si>
+    <t>48-49</t>
+  </si>
+  <si>
+    <t>92-71</t>
+  </si>
+  <si>
+    <t>46-36</t>
+  </si>
+  <si>
+    <t>59-53</t>
+  </si>
+  <si>
+    <t>32-19</t>
+  </si>
+  <si>
+    <t>38-41</t>
+  </si>
+  <si>
+    <t>53-31</t>
+  </si>
+  <si>
+    <t>93-69</t>
+  </si>
+  <si>
+    <t>49-31</t>
+  </si>
+  <si>
+    <t>27-22</t>
+  </si>
+  <si>
+    <t>63-47</t>
+  </si>
+  <si>
+    <t>27-25</t>
+  </si>
+  <si>
+    <t>35-42</t>
+  </si>
+  <si>
+    <t>55-30</t>
+  </si>
+  <si>
+    <t>84-78</t>
+  </si>
+  <si>
+    <t>39-42</t>
+  </si>
+  <si>
+    <t>28-24</t>
+  </si>
+  <si>
+    <t>60-56</t>
+  </si>
+  <si>
+    <t>26-20</t>
+  </si>
+  <si>
+    <t>24-41</t>
+  </si>
+  <si>
+    <t>62-35</t>
+  </si>
+  <si>
+    <t>87-75</t>
+  </si>
+  <si>
+    <t>31-25</t>
+  </si>
+  <si>
+    <t>62-52</t>
+  </si>
+  <si>
+    <t>24-24</t>
+  </si>
+  <si>
+    <t>44-45</t>
+  </si>
+  <si>
+    <t>42-31</t>
+  </si>
+  <si>
+    <t>79-83</t>
+  </si>
+  <si>
+    <t>46-35</t>
+  </si>
+  <si>
+    <t>30-16</t>
+  </si>
+  <si>
+    <t>53-54</t>
+  </si>
+  <si>
+    <t>32-23</t>
+  </si>
+  <si>
+    <t>45-52</t>
+  </si>
+  <si>
+    <t>40-25</t>
+  </si>
+  <si>
+    <t>85-77</t>
+  </si>
+  <si>
+    <t>20-31</t>
+  </si>
+  <si>
+    <t>58-51</t>
+  </si>
+  <si>
+    <t>27-26</t>
+  </si>
+  <si>
+    <t>51-50</t>
+  </si>
+  <si>
+    <t>34-27</t>
+  </si>
+  <si>
+    <t>80-82</t>
+  </si>
+  <si>
+    <t>36-45</t>
+  </si>
+  <si>
+    <t>34-21</t>
+  </si>
+  <si>
+    <t>56-58</t>
+  </si>
+  <si>
+    <t>25-23</t>
+  </si>
+  <si>
+    <t>34-34</t>
+  </si>
+  <si>
+    <t>47-47</t>
+  </si>
+  <si>
+    <t>81-81</t>
+  </si>
+  <si>
+    <t>24-28</t>
+  </si>
+  <si>
+    <t>60-58</t>
+  </si>
+  <si>
+    <t>18-26</t>
+  </si>
+  <si>
+    <t>42-55</t>
+  </si>
+  <si>
+    <t>36-29</t>
+  </si>
+  <si>
+    <t>74-88</t>
+  </si>
+  <si>
+    <t>42-40</t>
+  </si>
+  <si>
+    <t>34-46</t>
+  </si>
+  <si>
+    <t>28-28</t>
+  </si>
+  <si>
+    <t>52-55</t>
+  </si>
+  <si>
+    <t>24-31</t>
+  </si>
+  <si>
+    <t>41-46</t>
+  </si>
+  <si>
+    <t>35-40</t>
+  </si>
+  <si>
+    <t>72-90</t>
+  </si>
+  <si>
+    <t>31-50</t>
+  </si>
+  <si>
+    <t>49-59</t>
+  </si>
+  <si>
+    <t>27-27</t>
+  </si>
+  <si>
+    <t>40-43</t>
+  </si>
+  <si>
+    <t>36-43</t>
+  </si>
+  <si>
+    <t>33-48</t>
+  </si>
+  <si>
+    <t>29-28</t>
+  </si>
+  <si>
+    <t>49-62</t>
+  </si>
+  <si>
+    <t>25-26</t>
+  </si>
+  <si>
+    <t>33-51</t>
+  </si>
+  <si>
+    <t>41-37</t>
+  </si>
+  <si>
+    <t>76-86</t>
+  </si>
+  <si>
+    <t>37-44</t>
+  </si>
+  <si>
+    <t>18-25</t>
+  </si>
+  <si>
+    <t>58-60</t>
+  </si>
+  <si>
+    <t>16-28</t>
+  </si>
+  <si>
+    <t>34-56</t>
+  </si>
+  <si>
+    <t>40-32</t>
+  </si>
+  <si>
+    <t>77-85</t>
+  </si>
+  <si>
+    <t>34-47</t>
+  </si>
+  <si>
+    <t>20-29</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>19-24</t>
+  </si>
+  <si>
+    <t>51-68</t>
+  </si>
+  <si>
+    <t>23-20</t>
+  </si>
+  <si>
+    <t>29-52</t>
+  </si>
+  <si>
+    <t>54-55</t>
+  </si>
+  <si>
+    <t>20-33</t>
+  </si>
+  <si>
+    <t>36-48</t>
+  </si>
+  <si>
+    <t>38-40</t>
+  </si>
+  <si>
+    <t>66-96</t>
+  </si>
+  <si>
+    <t>30-51</t>
+  </si>
+  <si>
+    <t>52-68</t>
+  </si>
+  <si>
+    <t>33-53</t>
+  </si>
+  <si>
+    <t>40-36</t>
+  </si>
+  <si>
+    <t>67-95</t>
+  </si>
+  <si>
+    <t>35-46</t>
+  </si>
+  <si>
+    <t>19-29</t>
+  </si>
+  <si>
+    <t>22-29</t>
+  </si>
+  <si>
+    <t>40-55</t>
+  </si>
+  <si>
+    <t>31-36</t>
+  </si>
+  <si>
+    <t>63-99</t>
+  </si>
+  <si>
+    <t>32-49</t>
+  </si>
+  <si>
+    <t>24-25</t>
+  </si>
+  <si>
+    <t>50-75</t>
+  </si>
+  <si>
+    <t>16-21</t>
+  </si>
+  <si>
+    <t>33-71</t>
+  </si>
+  <si>
+    <t>33-25</t>
+  </si>
+  <si>
+    <t>71-91</t>
+  </si>
+  <si>
+    <t>44-74</t>
+  </si>
+  <si>
+    <t>22-22</t>
+  </si>
+  <si>
+    <t>30-60</t>
+  </si>
+  <si>
+    <t>36-36</t>
+  </si>
+  <si>
+    <t>26-55</t>
+  </si>
+  <si>
+    <t>24-36</t>
+  </si>
+  <si>
+    <t>50-74</t>
+  </si>
+  <si>
+    <t>13-25</t>
+  </si>
+  <si>
+    <t>36-66</t>
+  </si>
+  <si>
+    <t>27-33</t>
+  </si>
+  <si>
+    <t>64-98</t>
+  </si>
+  <si>
+    <t>24-35</t>
+  </si>
+  <si>
+    <t>40-71</t>
+  </si>
+  <si>
+    <t>26-57</t>
+  </si>
+  <si>
+    <t>57-105</t>
+  </si>
+  <si>
+    <t>24-57</t>
+  </si>
+  <si>
+    <t>27-54</t>
+  </si>
+  <si>
+    <t>18-36</t>
+  </si>
+  <si>
+    <t>38-78</t>
+  </si>
+  <si>
+    <t>13-33</t>
+  </si>
+  <si>
+    <t>18-76</t>
+  </si>
+  <si>
+    <t>33-35</t>
+  </si>
+  <si>
+    <t>#Bat</t>
+  </si>
+  <si>
+    <t>BatAge</t>
+  </si>
+  <si>
+    <t>R/G</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>OBP</t>
+  </si>
+  <si>
+    <t>SLG</t>
+  </si>
+  <si>
+    <t>OPS</t>
+  </si>
+  <si>
+    <t>OPS+</t>
+  </si>
+  <si>
+    <t>LOB</t>
+  </si>
+  <si>
+    <t>#P</t>
+  </si>
+  <si>
+    <t>PAge</t>
+  </si>
+  <si>
+    <t>RA/G</t>
+  </si>
+  <si>
+    <t>ERA</t>
+  </si>
+  <si>
+    <t>GS</t>
+  </si>
+  <si>
+    <t>GF</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>tSho</t>
+  </si>
+  <si>
+    <t>cSho</t>
+  </si>
+  <si>
+    <t>SV</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>ER</t>
+  </si>
+  <si>
+    <t>BK</t>
+  </si>
+  <si>
+    <t>WP</t>
+  </si>
+  <si>
+    <t>BF</t>
+  </si>
+  <si>
+    <t>ERA+</t>
+  </si>
+  <si>
+    <t>FIP</t>
+  </si>
+  <si>
+    <t>WHIP</t>
+  </si>
+  <si>
+    <t>H9</t>
+  </si>
+  <si>
+    <t>HR9</t>
+  </si>
+  <si>
+    <t>BB9</t>
+  </si>
+  <si>
+    <t>SO9</t>
+  </si>
+  <si>
+    <t>SO/W</t>
   </si>
 </sst>
 </file>
@@ -3015,9 +3774,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="24" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -29762,7 +30522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H812"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:H812"/>
     </sheetView>
   </sheetViews>
@@ -50890,4 +51650,8423 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection sqref="A1:AC31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>986</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="S1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="T1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="U1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="V1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="W1" t="s">
+        <v>486</v>
+      </c>
+      <c r="X1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2">
+        <v>44</v>
+      </c>
+      <c r="C2">
+        <v>28.1</v>
+      </c>
+      <c r="D2">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="E2">
+        <v>162</v>
+      </c>
+      <c r="F2">
+        <v>6334</v>
+      </c>
+      <c r="G2">
+        <v>5676</v>
+      </c>
+      <c r="H2">
+        <v>685</v>
+      </c>
+      <c r="I2">
+        <v>1468</v>
+      </c>
+      <c r="J2">
+        <v>302</v>
+      </c>
+      <c r="K2">
+        <v>31</v>
+      </c>
+      <c r="L2">
+        <v>130</v>
+      </c>
+      <c r="M2">
+        <v>647</v>
+      </c>
+      <c r="N2">
+        <v>62</v>
+      </c>
+      <c r="O2">
+        <v>41</v>
+      </c>
+      <c r="P2">
+        <v>519</v>
+      </c>
+      <c r="Q2">
+        <v>1142</v>
+      </c>
+      <c r="R2">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="S2">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="T2">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="U2">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="V2">
+        <v>96</v>
+      </c>
+      <c r="W2">
+        <v>2222</v>
+      </c>
+      <c r="X2">
+        <v>160</v>
+      </c>
+      <c r="Y2">
+        <v>43</v>
+      </c>
+      <c r="Z2">
+        <v>50</v>
+      </c>
+      <c r="AA2">
+        <v>43</v>
+      </c>
+      <c r="AB2">
+        <v>51</v>
+      </c>
+      <c r="AC2">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3">
+        <v>44</v>
+      </c>
+      <c r="C3">
+        <v>26.8</v>
+      </c>
+      <c r="D3">
+        <v>4.25</v>
+      </c>
+      <c r="E3">
+        <v>162</v>
+      </c>
+      <c r="F3">
+        <v>6133</v>
+      </c>
+      <c r="G3">
+        <v>5441</v>
+      </c>
+      <c r="H3">
+        <v>688</v>
+      </c>
+      <c r="I3">
+        <v>1354</v>
+      </c>
+      <c r="J3">
+        <v>247</v>
+      </c>
+      <c r="K3">
+        <v>21</v>
+      </c>
+      <c r="L3">
+        <v>181</v>
+      </c>
+      <c r="M3">
+        <v>656</v>
+      </c>
+      <c r="N3">
+        <v>64</v>
+      </c>
+      <c r="O3">
+        <v>31</v>
+      </c>
+      <c r="P3">
+        <v>542</v>
+      </c>
+      <c r="Q3">
+        <v>1384</v>
+      </c>
+      <c r="R3">
+        <v>0.249</v>
+      </c>
+      <c r="S3">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="T3">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="U3">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="V3">
+        <v>99</v>
+      </c>
+      <c r="W3">
+        <v>2186</v>
+      </c>
+      <c r="X3">
+        <v>119</v>
+      </c>
+      <c r="Y3">
+        <v>55</v>
+      </c>
+      <c r="Z3">
+        <v>58</v>
+      </c>
+      <c r="AA3">
+        <v>35</v>
+      </c>
+      <c r="AB3">
+        <v>36</v>
+      </c>
+      <c r="AC3">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4">
+        <v>52</v>
+      </c>
+      <c r="C4">
+        <v>27.8</v>
+      </c>
+      <c r="D4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E4">
+        <v>162</v>
+      </c>
+      <c r="F4">
+        <v>6144</v>
+      </c>
+      <c r="G4">
+        <v>5620</v>
+      </c>
+      <c r="H4">
+        <v>745</v>
+      </c>
+      <c r="I4">
+        <v>1460</v>
+      </c>
+      <c r="J4">
+        <v>298</v>
+      </c>
+      <c r="K4">
+        <v>14</v>
+      </c>
+      <c r="L4">
+        <v>212</v>
+      </c>
+      <c r="M4">
+        <v>719</v>
+      </c>
+      <c r="N4">
+        <v>79</v>
+      </c>
+      <c r="O4">
+        <v>29</v>
+      </c>
+      <c r="P4">
+        <v>416</v>
+      </c>
+      <c r="Q4">
+        <v>1125</v>
+      </c>
+      <c r="R4">
+        <v>0.26</v>
+      </c>
+      <c r="S4">
+        <v>0.313</v>
+      </c>
+      <c r="T4">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="U4">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="V4">
+        <v>101</v>
+      </c>
+      <c r="W4">
+        <v>2422</v>
+      </c>
+      <c r="X4">
+        <v>105</v>
+      </c>
+      <c r="Y4">
+        <v>36</v>
+      </c>
+      <c r="Z4">
+        <v>27</v>
+      </c>
+      <c r="AA4">
+        <v>45</v>
+      </c>
+      <c r="AB4">
+        <v>36</v>
+      </c>
+      <c r="AC4">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5">
+        <v>48</v>
+      </c>
+      <c r="C5">
+        <v>29.6</v>
+      </c>
+      <c r="D5">
+        <v>5.27</v>
+      </c>
+      <c r="E5">
+        <v>162</v>
+      </c>
+      <c r="F5">
+        <v>6382</v>
+      </c>
+      <c r="G5">
+        <v>5651</v>
+      </c>
+      <c r="H5">
+        <v>853</v>
+      </c>
+      <c r="I5">
+        <v>1566</v>
+      </c>
+      <c r="J5">
+        <v>363</v>
+      </c>
+      <c r="K5">
+        <v>29</v>
+      </c>
+      <c r="L5">
+        <v>178</v>
+      </c>
+      <c r="M5">
+        <v>819</v>
+      </c>
+      <c r="N5">
+        <v>123</v>
+      </c>
+      <c r="O5">
+        <v>19</v>
+      </c>
+      <c r="P5">
+        <v>581</v>
+      </c>
+      <c r="Q5">
+        <v>1308</v>
+      </c>
+      <c r="R5">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="S5">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="T5">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="U5">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="V5">
+        <v>116</v>
+      </c>
+      <c r="W5">
+        <v>2521</v>
+      </c>
+      <c r="X5">
+        <v>137</v>
+      </c>
+      <c r="Y5">
+        <v>72</v>
+      </c>
+      <c r="Z5">
+        <v>24</v>
+      </c>
+      <c r="AA5">
+        <v>50</v>
+      </c>
+      <c r="AB5">
+        <v>51</v>
+      </c>
+      <c r="AC5">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6">
+        <v>56</v>
+      </c>
+      <c r="C6">
+        <v>27.9</v>
+      </c>
+      <c r="D6">
+        <v>3.72</v>
+      </c>
+      <c r="E6">
+        <v>162</v>
+      </c>
+      <c r="F6">
+        <v>6079</v>
+      </c>
+      <c r="G6">
+        <v>5498</v>
+      </c>
+      <c r="H6">
+        <v>602</v>
+      </c>
+      <c r="I6">
+        <v>1307</v>
+      </c>
+      <c r="J6">
+        <v>297</v>
+      </c>
+      <c r="K6">
+        <v>18</v>
+      </c>
+      <c r="L6">
+        <v>172</v>
+      </c>
+      <c r="M6">
+        <v>576</v>
+      </c>
+      <c r="N6">
+        <v>63</v>
+      </c>
+      <c r="O6">
+        <v>32</v>
+      </c>
+      <c r="P6">
+        <v>439</v>
+      </c>
+      <c r="Q6">
+        <v>1230</v>
+      </c>
+      <c r="R6">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="S6">
+        <v>0.3</v>
+      </c>
+      <c r="T6">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="U6">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="V6">
+        <v>89</v>
+      </c>
+      <c r="W6">
+        <v>2156</v>
+      </c>
+      <c r="X6">
+        <v>120</v>
+      </c>
+      <c r="Y6">
+        <v>67</v>
+      </c>
+      <c r="Z6">
+        <v>43</v>
+      </c>
+      <c r="AA6">
+        <v>30</v>
+      </c>
+      <c r="AB6">
+        <v>28</v>
+      </c>
+      <c r="AC6">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7">
+        <v>47</v>
+      </c>
+      <c r="C7">
+        <v>29.2</v>
+      </c>
+      <c r="D7">
+        <v>3.69</v>
+      </c>
+      <c r="E7">
+        <v>162</v>
+      </c>
+      <c r="F7">
+        <v>6077</v>
+      </c>
+      <c r="G7">
+        <v>5563</v>
+      </c>
+      <c r="H7">
+        <v>598</v>
+      </c>
+      <c r="I7">
+        <v>1385</v>
+      </c>
+      <c r="J7">
+        <v>237</v>
+      </c>
+      <c r="K7">
+        <v>19</v>
+      </c>
+      <c r="L7">
+        <v>148</v>
+      </c>
+      <c r="M7">
+        <v>574</v>
+      </c>
+      <c r="N7">
+        <v>105</v>
+      </c>
+      <c r="O7">
+        <v>42</v>
+      </c>
+      <c r="P7">
+        <v>411</v>
+      </c>
+      <c r="Q7">
+        <v>1207</v>
+      </c>
+      <c r="R7">
+        <v>0.249</v>
+      </c>
+      <c r="S7">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="T7">
+        <v>0.378</v>
+      </c>
+      <c r="U7">
+        <v>0.68</v>
+      </c>
+      <c r="V7">
+        <v>84</v>
+      </c>
+      <c r="W7">
+        <v>2104</v>
+      </c>
+      <c r="X7">
+        <v>124</v>
+      </c>
+      <c r="Y7">
+        <v>34</v>
+      </c>
+      <c r="Z7">
+        <v>19</v>
+      </c>
+      <c r="AA7">
+        <v>48</v>
+      </c>
+      <c r="AB7">
+        <v>23</v>
+      </c>
+      <c r="AC7">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8">
+        <v>39</v>
+      </c>
+      <c r="C8">
+        <v>28.5</v>
+      </c>
+      <c r="D8">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="E8">
+        <v>162</v>
+      </c>
+      <c r="F8">
+        <v>6293</v>
+      </c>
+      <c r="G8">
+        <v>5499</v>
+      </c>
+      <c r="H8">
+        <v>698</v>
+      </c>
+      <c r="I8">
+        <v>1370</v>
+      </c>
+      <c r="J8">
+        <v>274</v>
+      </c>
+      <c r="K8">
+        <v>20</v>
+      </c>
+      <c r="L8">
+        <v>155</v>
+      </c>
+      <c r="M8">
+        <v>664</v>
+      </c>
+      <c r="N8">
+        <v>67</v>
+      </c>
+      <c r="O8">
+        <v>35</v>
+      </c>
+      <c r="P8">
+        <v>585</v>
+      </c>
+      <c r="Q8">
+        <v>1245</v>
+      </c>
+      <c r="R8">
+        <v>0.249</v>
+      </c>
+      <c r="S8">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="T8">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="U8">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="V8">
+        <v>98</v>
+      </c>
+      <c r="W8">
+        <v>2149</v>
+      </c>
+      <c r="X8">
+        <v>129</v>
+      </c>
+      <c r="Y8">
+        <v>76</v>
+      </c>
+      <c r="Z8">
+        <v>85</v>
+      </c>
+      <c r="AA8">
+        <v>46</v>
+      </c>
+      <c r="AB8">
+        <v>65</v>
+      </c>
+      <c r="AC8">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9">
+        <v>49</v>
+      </c>
+      <c r="C9">
+        <v>28.6</v>
+      </c>
+      <c r="D9">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E9">
+        <v>162</v>
+      </c>
+      <c r="F9">
+        <v>6165</v>
+      </c>
+      <c r="G9">
+        <v>5465</v>
+      </c>
+      <c r="H9">
+        <v>745</v>
+      </c>
+      <c r="I9">
+        <v>1391</v>
+      </c>
+      <c r="J9">
+        <v>290</v>
+      </c>
+      <c r="K9">
+        <v>23</v>
+      </c>
+      <c r="L9">
+        <v>171</v>
+      </c>
+      <c r="M9">
+        <v>711</v>
+      </c>
+      <c r="N9">
+        <v>117</v>
+      </c>
+      <c r="O9">
+        <v>36</v>
+      </c>
+      <c r="P9">
+        <v>562</v>
+      </c>
+      <c r="Q9">
+        <v>1283</v>
+      </c>
+      <c r="R9">
+        <v>0.255</v>
+      </c>
+      <c r="S9">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="T9">
+        <v>0.41</v>
+      </c>
+      <c r="U9">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="V9">
+        <v>107</v>
+      </c>
+      <c r="W9">
+        <v>2240</v>
+      </c>
+      <c r="X9">
+        <v>106</v>
+      </c>
+      <c r="Y9">
+        <v>51</v>
+      </c>
+      <c r="Z9">
+        <v>31</v>
+      </c>
+      <c r="AA9">
+        <v>56</v>
+      </c>
+      <c r="AB9">
+        <v>19</v>
+      </c>
+      <c r="AC9">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10">
+        <v>43</v>
+      </c>
+      <c r="C10">
+        <v>27.7</v>
+      </c>
+      <c r="D10">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="E10">
+        <v>162</v>
+      </c>
+      <c r="F10">
+        <v>6152</v>
+      </c>
+      <c r="G10">
+        <v>5599</v>
+      </c>
+      <c r="H10">
+        <v>706</v>
+      </c>
+      <c r="I10">
+        <v>1511</v>
+      </c>
+      <c r="J10">
+        <v>283</v>
+      </c>
+      <c r="K10">
+        <v>36</v>
+      </c>
+      <c r="L10">
+        <v>159</v>
+      </c>
+      <c r="M10">
+        <v>673</v>
+      </c>
+      <c r="N10">
+        <v>112</v>
+      </c>
+      <c r="O10">
+        <v>32</v>
+      </c>
+      <c r="P10">
+        <v>427</v>
+      </c>
+      <c r="Q10">
+        <v>1204</v>
+      </c>
+      <c r="R10">
+        <v>0.27</v>
+      </c>
+      <c r="S10">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="T10">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="U10">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="V10">
+        <v>91</v>
+      </c>
+      <c r="W10">
+        <v>2343</v>
+      </c>
+      <c r="X10">
+        <v>111</v>
+      </c>
+      <c r="Y10">
+        <v>26</v>
+      </c>
+      <c r="Z10">
+        <v>65</v>
+      </c>
+      <c r="AA10">
+        <v>35</v>
+      </c>
+      <c r="AB10">
+        <v>26</v>
+      </c>
+      <c r="AC10">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11">
+        <v>39</v>
+      </c>
+      <c r="C11">
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <v>4.91</v>
+      </c>
+      <c r="E11">
+        <v>162</v>
+      </c>
+      <c r="F11">
+        <v>6388</v>
+      </c>
+      <c r="G11">
+        <v>5735</v>
+      </c>
+      <c r="H11">
+        <v>796</v>
+      </c>
+      <c r="I11">
+        <v>1625</v>
+      </c>
+      <c r="J11">
+        <v>292</v>
+      </c>
+      <c r="K11">
+        <v>23</v>
+      </c>
+      <c r="L11">
+        <v>176</v>
+      </c>
+      <c r="M11">
+        <v>767</v>
+      </c>
+      <c r="N11">
+        <v>35</v>
+      </c>
+      <c r="O11">
+        <v>20</v>
+      </c>
+      <c r="P11">
+        <v>531</v>
+      </c>
+      <c r="Q11">
+        <v>1073</v>
+      </c>
+      <c r="R11">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="S11">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="T11">
+        <v>0.434</v>
+      </c>
+      <c r="U11">
+        <v>0.78</v>
+      </c>
+      <c r="V11">
+        <v>111</v>
+      </c>
+      <c r="W11">
+        <v>2491</v>
+      </c>
+      <c r="X11">
+        <v>146</v>
+      </c>
+      <c r="Y11">
+        <v>43</v>
+      </c>
+      <c r="Z11">
+        <v>32</v>
+      </c>
+      <c r="AA11">
+        <v>47</v>
+      </c>
+      <c r="AB11">
+        <v>40</v>
+      </c>
+      <c r="AC11">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>173</v>
+      </c>
+      <c r="B12">
+        <v>50</v>
+      </c>
+      <c r="C12">
+        <v>25.8</v>
+      </c>
+      <c r="D12">
+        <v>3.77</v>
+      </c>
+      <c r="E12">
+        <v>162</v>
+      </c>
+      <c r="F12">
+        <v>6020</v>
+      </c>
+      <c r="G12">
+        <v>5457</v>
+      </c>
+      <c r="H12">
+        <v>610</v>
+      </c>
+      <c r="I12">
+        <v>1307</v>
+      </c>
+      <c r="J12">
+        <v>266</v>
+      </c>
+      <c r="K12">
+        <v>16</v>
+      </c>
+      <c r="L12">
+        <v>148</v>
+      </c>
+      <c r="M12">
+        <v>566</v>
+      </c>
+      <c r="N12">
+        <v>110</v>
+      </c>
+      <c r="O12">
+        <v>61</v>
+      </c>
+      <c r="P12">
+        <v>426</v>
+      </c>
+      <c r="Q12">
+        <v>1535</v>
+      </c>
+      <c r="R12">
+        <v>0.24</v>
+      </c>
+      <c r="S12">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="T12">
+        <v>0.375</v>
+      </c>
+      <c r="U12">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="V12">
+        <v>86</v>
+      </c>
+      <c r="W12">
+        <v>2049</v>
+      </c>
+      <c r="X12">
+        <v>110</v>
+      </c>
+      <c r="Y12">
+        <v>52</v>
+      </c>
+      <c r="Z12">
+        <v>46</v>
+      </c>
+      <c r="AA12">
+        <v>38</v>
+      </c>
+      <c r="AB12">
+        <v>17</v>
+      </c>
+      <c r="AC12">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>185</v>
+      </c>
+      <c r="B13">
+        <v>43</v>
+      </c>
+      <c r="C13">
+        <v>26.9</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>162</v>
+      </c>
+      <c r="F13">
+        <v>6093</v>
+      </c>
+      <c r="G13">
+        <v>5549</v>
+      </c>
+      <c r="H13">
+        <v>648</v>
+      </c>
+      <c r="I13">
+        <v>1443</v>
+      </c>
+      <c r="J13">
+        <v>254</v>
+      </c>
+      <c r="K13">
+        <v>34</v>
+      </c>
+      <c r="L13">
+        <v>112</v>
+      </c>
+      <c r="M13">
+        <v>620</v>
+      </c>
+      <c r="N13">
+        <v>153</v>
+      </c>
+      <c r="O13">
+        <v>32</v>
+      </c>
+      <c r="P13">
+        <v>422</v>
+      </c>
+      <c r="Q13">
+        <v>1048</v>
+      </c>
+      <c r="R13">
+        <v>0.26</v>
+      </c>
+      <c r="S13">
+        <v>0.315</v>
+      </c>
+      <c r="T13">
+        <v>0.379</v>
+      </c>
+      <c r="U13">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="V13">
+        <v>89</v>
+      </c>
+      <c r="W13">
+        <v>2101</v>
+      </c>
+      <c r="X13">
+        <v>131</v>
+      </c>
+      <c r="Y13">
+        <v>42</v>
+      </c>
+      <c r="Z13">
+        <v>37</v>
+      </c>
+      <c r="AA13">
+        <v>42</v>
+      </c>
+      <c r="AB13">
+        <v>38</v>
+      </c>
+      <c r="AC13">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>196</v>
+      </c>
+      <c r="B14">
+        <v>49</v>
+      </c>
+      <c r="C14">
+        <v>27.8</v>
+      </c>
+      <c r="D14">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="E14">
+        <v>162</v>
+      </c>
+      <c r="F14">
+        <v>6260</v>
+      </c>
+      <c r="G14">
+        <v>5588</v>
+      </c>
+      <c r="H14">
+        <v>733</v>
+      </c>
+      <c r="I14">
+        <v>1476</v>
+      </c>
+      <c r="J14">
+        <v>270</v>
+      </c>
+      <c r="K14">
+        <v>39</v>
+      </c>
+      <c r="L14">
+        <v>164</v>
+      </c>
+      <c r="M14">
+        <v>696</v>
+      </c>
+      <c r="N14">
+        <v>82</v>
+      </c>
+      <c r="O14">
+        <v>34</v>
+      </c>
+      <c r="P14">
+        <v>523</v>
+      </c>
+      <c r="Q14">
+        <v>1221</v>
+      </c>
+      <c r="R14">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="S14">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="T14">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="U14">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="V14">
+        <v>110</v>
+      </c>
+      <c r="W14">
+        <v>2316</v>
+      </c>
+      <c r="X14">
+        <v>150</v>
+      </c>
+      <c r="Y14">
+        <v>48</v>
+      </c>
+      <c r="Z14">
+        <v>37</v>
+      </c>
+      <c r="AA14">
+        <v>64</v>
+      </c>
+      <c r="AB14">
+        <v>40</v>
+      </c>
+      <c r="AC14">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>207</v>
+      </c>
+      <c r="B15">
+        <v>49</v>
+      </c>
+      <c r="C15">
+        <v>30.6</v>
+      </c>
+      <c r="D15">
+        <v>4.01</v>
+      </c>
+      <c r="E15">
+        <v>162</v>
+      </c>
+      <c r="F15">
+        <v>6145</v>
+      </c>
+      <c r="G15">
+        <v>5491</v>
+      </c>
+      <c r="H15">
+        <v>649</v>
+      </c>
+      <c r="I15">
+        <v>1447</v>
+      </c>
+      <c r="J15">
+        <v>281</v>
+      </c>
+      <c r="K15">
+        <v>17</v>
+      </c>
+      <c r="L15">
+        <v>138</v>
+      </c>
+      <c r="M15">
+        <v>618</v>
+      </c>
+      <c r="N15">
+        <v>78</v>
+      </c>
+      <c r="O15">
+        <v>28</v>
+      </c>
+      <c r="P15">
+        <v>476</v>
+      </c>
+      <c r="Q15">
+        <v>1146</v>
+      </c>
+      <c r="R15">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="S15">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="T15">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="U15">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="V15">
+        <v>103</v>
+      </c>
+      <c r="W15">
+        <v>2176</v>
+      </c>
+      <c r="X15">
+        <v>130</v>
+      </c>
+      <c r="Y15">
+        <v>57</v>
+      </c>
+      <c r="Z15">
+        <v>71</v>
+      </c>
+      <c r="AA15">
+        <v>48</v>
+      </c>
+      <c r="AB15">
+        <v>45</v>
+      </c>
+      <c r="AC15">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>220</v>
+      </c>
+      <c r="B16">
+        <v>53</v>
+      </c>
+      <c r="C16">
+        <v>27.7</v>
+      </c>
+      <c r="D16">
+        <v>3.17</v>
+      </c>
+      <c r="E16">
+        <v>162</v>
+      </c>
+      <c r="F16">
+        <v>6021</v>
+      </c>
+      <c r="G16">
+        <v>5449</v>
+      </c>
+      <c r="H16">
+        <v>513</v>
+      </c>
+      <c r="I16">
+        <v>1257</v>
+      </c>
+      <c r="J16">
+        <v>219</v>
+      </c>
+      <c r="K16">
+        <v>31</v>
+      </c>
+      <c r="L16">
+        <v>95</v>
+      </c>
+      <c r="M16">
+        <v>485</v>
+      </c>
+      <c r="N16">
+        <v>78</v>
+      </c>
+      <c r="O16">
+        <v>29</v>
+      </c>
+      <c r="P16">
+        <v>432</v>
+      </c>
+      <c r="Q16">
+        <v>1232</v>
+      </c>
+      <c r="R16">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="S16">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="T16">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="U16">
+        <v>0.627</v>
+      </c>
+      <c r="V16">
+        <v>73</v>
+      </c>
+      <c r="W16">
+        <v>1823</v>
+      </c>
+      <c r="X16">
+        <v>131</v>
+      </c>
+      <c r="Y16">
+        <v>56</v>
+      </c>
+      <c r="Z16">
+        <v>57</v>
+      </c>
+      <c r="AA16">
+        <v>26</v>
+      </c>
+      <c r="AB16">
+        <v>31</v>
+      </c>
+      <c r="AC16">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>236</v>
+      </c>
+      <c r="B17">
+        <v>40</v>
+      </c>
+      <c r="C17">
+        <v>27.9</v>
+      </c>
+      <c r="D17">
+        <v>3.95</v>
+      </c>
+      <c r="E17">
+        <v>162</v>
+      </c>
+      <c r="F17">
+        <v>6064</v>
+      </c>
+      <c r="G17">
+        <v>5474</v>
+      </c>
+      <c r="H17">
+        <v>640</v>
+      </c>
+      <c r="I17">
+        <v>1381</v>
+      </c>
+      <c r="J17">
+        <v>238</v>
+      </c>
+      <c r="K17">
+        <v>43</v>
+      </c>
+      <c r="L17">
+        <v>157</v>
+      </c>
+      <c r="M17">
+        <v>610</v>
+      </c>
+      <c r="N17">
+        <v>142</v>
+      </c>
+      <c r="O17">
+        <v>50</v>
+      </c>
+      <c r="P17">
+        <v>407</v>
+      </c>
+      <c r="Q17">
+        <v>1183</v>
+      </c>
+      <c r="R17">
+        <v>0.252</v>
+      </c>
+      <c r="S17">
+        <v>0.311</v>
+      </c>
+      <c r="T17">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="U17">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="V17">
+        <v>93</v>
+      </c>
+      <c r="W17">
+        <v>2176</v>
+      </c>
+      <c r="X17">
+        <v>116</v>
+      </c>
+      <c r="Y17">
+        <v>71</v>
+      </c>
+      <c r="Z17">
+        <v>77</v>
+      </c>
+      <c r="AA17">
+        <v>35</v>
+      </c>
+      <c r="AB17">
+        <v>22</v>
+      </c>
+      <c r="AC17">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>249</v>
+      </c>
+      <c r="B18">
+        <v>44</v>
+      </c>
+      <c r="C18">
+        <v>28.2</v>
+      </c>
+      <c r="D18">
+        <v>3.79</v>
+      </c>
+      <c r="E18">
+        <v>162</v>
+      </c>
+      <c r="F18">
+        <v>6212</v>
+      </c>
+      <c r="G18">
+        <v>5564</v>
+      </c>
+      <c r="H18">
+        <v>614</v>
+      </c>
+      <c r="I18">
+        <v>1346</v>
+      </c>
+      <c r="J18">
+        <v>285</v>
+      </c>
+      <c r="K18">
+        <v>15</v>
+      </c>
+      <c r="L18">
+        <v>151</v>
+      </c>
+      <c r="M18">
+        <v>590</v>
+      </c>
+      <c r="N18">
+        <v>52</v>
+      </c>
+      <c r="O18">
+        <v>33</v>
+      </c>
+      <c r="P18">
+        <v>533</v>
+      </c>
+      <c r="Q18">
+        <v>1430</v>
+      </c>
+      <c r="R18">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="S18">
+        <v>0.312</v>
+      </c>
+      <c r="T18">
+        <v>0.38</v>
+      </c>
+      <c r="U18">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="V18">
+        <v>90</v>
+      </c>
+      <c r="W18">
+        <v>2114</v>
+      </c>
+      <c r="X18">
+        <v>103</v>
+      </c>
+      <c r="Y18">
+        <v>52</v>
+      </c>
+      <c r="Z18">
+        <v>29</v>
+      </c>
+      <c r="AA18">
+        <v>32</v>
+      </c>
+      <c r="AB18">
+        <v>20</v>
+      </c>
+      <c r="AC18">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>260</v>
+      </c>
+      <c r="B19">
+        <v>53</v>
+      </c>
+      <c r="C19">
+        <v>28.3</v>
+      </c>
+      <c r="D19">
+        <v>3.82</v>
+      </c>
+      <c r="E19">
+        <v>162</v>
+      </c>
+      <c r="F19">
+        <v>6207</v>
+      </c>
+      <c r="G19">
+        <v>5559</v>
+      </c>
+      <c r="H19">
+        <v>619</v>
+      </c>
+      <c r="I19">
+        <v>1318</v>
+      </c>
+      <c r="J19">
+        <v>263</v>
+      </c>
+      <c r="K19">
+        <v>32</v>
+      </c>
+      <c r="L19">
+        <v>130</v>
+      </c>
+      <c r="M19">
+        <v>593</v>
+      </c>
+      <c r="N19">
+        <v>114</v>
+      </c>
+      <c r="O19">
+        <v>35</v>
+      </c>
+      <c r="P19">
+        <v>512</v>
+      </c>
+      <c r="Q19">
+        <v>1384</v>
+      </c>
+      <c r="R19">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="S19">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="T19">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="U19">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="V19">
+        <v>91</v>
+      </c>
+      <c r="W19">
+        <v>2035</v>
+      </c>
+      <c r="X19">
+        <v>106</v>
+      </c>
+      <c r="Y19">
+        <v>51</v>
+      </c>
+      <c r="Z19">
+        <v>53</v>
+      </c>
+      <c r="AA19">
+        <v>32</v>
+      </c>
+      <c r="AB19">
+        <v>40</v>
+      </c>
+      <c r="AC19">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>270</v>
+      </c>
+      <c r="B20">
+        <v>56</v>
+      </c>
+      <c r="C20">
+        <v>31.9</v>
+      </c>
+      <c r="D20">
+        <v>4.01</v>
+      </c>
+      <c r="E20">
+        <v>162</v>
+      </c>
+      <c r="F20">
+        <v>6045</v>
+      </c>
+      <c r="G20">
+        <v>5449</v>
+      </c>
+      <c r="H20">
+        <v>650</v>
+      </c>
+      <c r="I20">
+        <v>1321</v>
+      </c>
+      <c r="J20">
+        <v>247</v>
+      </c>
+      <c r="K20">
+        <v>24</v>
+      </c>
+      <c r="L20">
+        <v>144</v>
+      </c>
+      <c r="M20">
+        <v>614</v>
+      </c>
+      <c r="N20">
+        <v>115</v>
+      </c>
+      <c r="O20">
+        <v>31</v>
+      </c>
+      <c r="P20">
+        <v>466</v>
+      </c>
+      <c r="Q20">
+        <v>1214</v>
+      </c>
+      <c r="R20">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="S20">
+        <v>0.307</v>
+      </c>
+      <c r="T20">
+        <v>0.376</v>
+      </c>
+      <c r="U20">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="V20">
+        <v>88</v>
+      </c>
+      <c r="W20">
+        <v>2048</v>
+      </c>
+      <c r="X20">
+        <v>121</v>
+      </c>
+      <c r="Y20">
+        <v>57</v>
+      </c>
+      <c r="Z20">
+        <v>36</v>
+      </c>
+      <c r="AA20">
+        <v>36</v>
+      </c>
+      <c r="AB20">
+        <v>33</v>
+      </c>
+      <c r="AC20">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>281</v>
+      </c>
+      <c r="B21">
+        <v>44</v>
+      </c>
+      <c r="C21">
+        <v>28.3</v>
+      </c>
+      <c r="D21">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="E21">
+        <v>162</v>
+      </c>
+      <c r="F21">
+        <v>6209</v>
+      </c>
+      <c r="G21">
+        <v>5521</v>
+      </c>
+      <c r="H21">
+        <v>767</v>
+      </c>
+      <c r="I21">
+        <v>1403</v>
+      </c>
+      <c r="J21">
+        <v>301</v>
+      </c>
+      <c r="K21">
+        <v>25</v>
+      </c>
+      <c r="L21">
+        <v>186</v>
+      </c>
+      <c r="M21">
+        <v>725</v>
+      </c>
+      <c r="N21">
+        <v>74</v>
+      </c>
+      <c r="O21">
+        <v>28</v>
+      </c>
+      <c r="P21">
+        <v>573</v>
+      </c>
+      <c r="Q21">
+        <v>1178</v>
+      </c>
+      <c r="R21">
+        <v>0.254</v>
+      </c>
+      <c r="S21">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="T21">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="U21">
+        <v>0.745</v>
+      </c>
+      <c r="V21">
+        <v>107</v>
+      </c>
+      <c r="W21">
+        <v>2312</v>
+      </c>
+      <c r="X21">
+        <v>108</v>
+      </c>
+      <c r="Y21">
+        <v>45</v>
+      </c>
+      <c r="Z21">
+        <v>21</v>
+      </c>
+      <c r="AA21">
+        <v>49</v>
+      </c>
+      <c r="AB21">
+        <v>29</v>
+      </c>
+      <c r="AC21">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>294</v>
+      </c>
+      <c r="B22">
+        <v>51</v>
+      </c>
+      <c r="C22">
+        <v>30</v>
+      </c>
+      <c r="D22">
+        <v>3.77</v>
+      </c>
+      <c r="E22">
+        <v>162</v>
+      </c>
+      <c r="F22">
+        <v>6014</v>
+      </c>
+      <c r="G22">
+        <v>5456</v>
+      </c>
+      <c r="H22">
+        <v>610</v>
+      </c>
+      <c r="I22">
+        <v>1355</v>
+      </c>
+      <c r="J22">
+        <v>255</v>
+      </c>
+      <c r="K22">
+        <v>32</v>
+      </c>
+      <c r="L22">
+        <v>140</v>
+      </c>
+      <c r="M22">
+        <v>578</v>
+      </c>
+      <c r="N22">
+        <v>73</v>
+      </c>
+      <c r="O22">
+        <v>29</v>
+      </c>
+      <c r="P22">
+        <v>417</v>
+      </c>
+      <c r="Q22">
+        <v>1205</v>
+      </c>
+      <c r="R22">
+        <v>0.248</v>
+      </c>
+      <c r="S22">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="T22">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="U22">
+        <v>0.69</v>
+      </c>
+      <c r="V22">
+        <v>91</v>
+      </c>
+      <c r="W22">
+        <v>2094</v>
+      </c>
+      <c r="X22">
+        <v>131</v>
+      </c>
+      <c r="Y22">
+        <v>53</v>
+      </c>
+      <c r="Z22">
+        <v>57</v>
+      </c>
+      <c r="AA22">
+        <v>31</v>
+      </c>
+      <c r="AB22">
+        <v>41</v>
+      </c>
+      <c r="AC22">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>306</v>
+      </c>
+      <c r="B23">
+        <v>49</v>
+      </c>
+      <c r="C23">
+        <v>27.9</v>
+      </c>
+      <c r="D23">
+        <v>3.91</v>
+      </c>
+      <c r="E23">
+        <v>162</v>
+      </c>
+      <c r="F23">
+        <v>6135</v>
+      </c>
+      <c r="G23">
+        <v>5486</v>
+      </c>
+      <c r="H23">
+        <v>634</v>
+      </c>
+      <c r="I23">
+        <v>1346</v>
+      </c>
+      <c r="J23">
+        <v>273</v>
+      </c>
+      <c r="K23">
+        <v>35</v>
+      </c>
+      <c r="L23">
+        <v>161</v>
+      </c>
+      <c r="M23">
+        <v>603</v>
+      </c>
+      <c r="N23">
+        <v>94</v>
+      </c>
+      <c r="O23">
+        <v>42</v>
+      </c>
+      <c r="P23">
+        <v>469</v>
+      </c>
+      <c r="Q23">
+        <v>1330</v>
+      </c>
+      <c r="R23">
+        <v>0.245</v>
+      </c>
+      <c r="S23">
+        <v>0.313</v>
+      </c>
+      <c r="T23">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="U23">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="V23">
+        <v>100</v>
+      </c>
+      <c r="W23">
+        <v>2172</v>
+      </c>
+      <c r="X23">
+        <v>120</v>
+      </c>
+      <c r="Y23">
+        <v>88</v>
+      </c>
+      <c r="Z23">
+        <v>62</v>
+      </c>
+      <c r="AA23">
+        <v>29</v>
+      </c>
+      <c r="AB23">
+        <v>41</v>
+      </c>
+      <c r="AC23">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>318</v>
+      </c>
+      <c r="B24">
+        <v>47</v>
+      </c>
+      <c r="C24">
+        <v>28.1</v>
+      </c>
+      <c r="D24">
+        <v>3.81</v>
+      </c>
+      <c r="E24">
+        <v>162</v>
+      </c>
+      <c r="F24">
+        <v>6122</v>
+      </c>
+      <c r="G24">
+        <v>5517</v>
+      </c>
+      <c r="H24">
+        <v>618</v>
+      </c>
+      <c r="I24">
+        <v>1349</v>
+      </c>
+      <c r="J24">
+        <v>246</v>
+      </c>
+      <c r="K24">
+        <v>26</v>
+      </c>
+      <c r="L24">
+        <v>146</v>
+      </c>
+      <c r="M24">
+        <v>578</v>
+      </c>
+      <c r="N24">
+        <v>118</v>
+      </c>
+      <c r="O24">
+        <v>34</v>
+      </c>
+      <c r="P24">
+        <v>467</v>
+      </c>
+      <c r="Q24">
+        <v>1309</v>
+      </c>
+      <c r="R24">
+        <v>0.245</v>
+      </c>
+      <c r="S24">
+        <v>0.308</v>
+      </c>
+      <c r="T24">
+        <v>0.378</v>
+      </c>
+      <c r="U24">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="V24">
+        <v>97</v>
+      </c>
+      <c r="W24">
+        <v>2085</v>
+      </c>
+      <c r="X24">
+        <v>99</v>
+      </c>
+      <c r="Y24">
+        <v>52</v>
+      </c>
+      <c r="Z24">
+        <v>52</v>
+      </c>
+      <c r="AA24">
+        <v>34</v>
+      </c>
+      <c r="AB24">
+        <v>36</v>
+      </c>
+      <c r="AC24">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>331</v>
+      </c>
+      <c r="B25">
+        <v>47</v>
+      </c>
+      <c r="C25">
+        <v>28.7</v>
+      </c>
+      <c r="D25">
+        <v>3.85</v>
+      </c>
+      <c r="E25">
+        <v>162</v>
+      </c>
+      <c r="F25">
+        <v>6172</v>
+      </c>
+      <c r="G25">
+        <v>5558</v>
+      </c>
+      <c r="H25">
+        <v>624</v>
+      </c>
+      <c r="I25">
+        <v>1318</v>
+      </c>
+      <c r="J25">
+        <v>249</v>
+      </c>
+      <c r="K25">
+        <v>17</v>
+      </c>
+      <c r="L25">
+        <v>188</v>
+      </c>
+      <c r="M25">
+        <v>597</v>
+      </c>
+      <c r="N25">
+        <v>49</v>
+      </c>
+      <c r="O25">
+        <v>23</v>
+      </c>
+      <c r="P25">
+        <v>529</v>
+      </c>
+      <c r="Q25">
+        <v>1353</v>
+      </c>
+      <c r="R25">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="S25">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="T25">
+        <v>0.39</v>
+      </c>
+      <c r="U25">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="V25">
+        <v>98</v>
+      </c>
+      <c r="W25">
+        <v>2165</v>
+      </c>
+      <c r="X25">
+        <v>122</v>
+      </c>
+      <c r="Y25">
+        <v>31</v>
+      </c>
+      <c r="Z25">
+        <v>26</v>
+      </c>
+      <c r="AA25">
+        <v>28</v>
+      </c>
+      <c r="AB25">
+        <v>21</v>
+      </c>
+      <c r="AC25">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>342</v>
+      </c>
+      <c r="B26">
+        <v>44</v>
+      </c>
+      <c r="C26">
+        <v>28.7</v>
+      </c>
+      <c r="D26">
+        <v>3.88</v>
+      </c>
+      <c r="E26">
+        <v>162</v>
+      </c>
+      <c r="F26">
+        <v>6168</v>
+      </c>
+      <c r="G26">
+        <v>5552</v>
+      </c>
+      <c r="H26">
+        <v>629</v>
+      </c>
+      <c r="I26">
+        <v>1446</v>
+      </c>
+      <c r="J26">
+        <v>280</v>
+      </c>
+      <c r="K26">
+        <v>35</v>
+      </c>
+      <c r="L26">
+        <v>107</v>
+      </c>
+      <c r="M26">
+        <v>596</v>
+      </c>
+      <c r="N26">
+        <v>67</v>
+      </c>
+      <c r="O26">
+        <v>26</v>
+      </c>
+      <c r="P26">
+        <v>469</v>
+      </c>
+      <c r="Q26">
+        <v>1078</v>
+      </c>
+      <c r="R26">
+        <v>0.26</v>
+      </c>
+      <c r="S26">
+        <v>0.32</v>
+      </c>
+      <c r="T26">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="U26">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="V26">
+        <v>100</v>
+      </c>
+      <c r="W26">
+        <v>2117</v>
+      </c>
+      <c r="X26">
+        <v>131</v>
+      </c>
+      <c r="Y26">
+        <v>39</v>
+      </c>
+      <c r="Z26">
+        <v>66</v>
+      </c>
+      <c r="AA26">
+        <v>42</v>
+      </c>
+      <c r="AB26">
+        <v>40</v>
+      </c>
+      <c r="AC26">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>353</v>
+      </c>
+      <c r="B27">
+        <v>44</v>
+      </c>
+      <c r="C27">
+        <v>28.7</v>
+      </c>
+      <c r="D27">
+        <v>4.83</v>
+      </c>
+      <c r="E27">
+        <v>162</v>
+      </c>
+      <c r="F27">
+        <v>6202</v>
+      </c>
+      <c r="G27">
+        <v>5557</v>
+      </c>
+      <c r="H27">
+        <v>783</v>
+      </c>
+      <c r="I27">
+        <v>1494</v>
+      </c>
+      <c r="J27">
+        <v>322</v>
+      </c>
+      <c r="K27">
+        <v>20</v>
+      </c>
+      <c r="L27">
+        <v>125</v>
+      </c>
+      <c r="M27">
+        <v>745</v>
+      </c>
+      <c r="N27">
+        <v>45</v>
+      </c>
+      <c r="O27">
+        <v>22</v>
+      </c>
+      <c r="P27">
+        <v>481</v>
+      </c>
+      <c r="Q27">
+        <v>1110</v>
+      </c>
+      <c r="R27">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="S27">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="T27">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="U27">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="V27">
+        <v>102</v>
+      </c>
+      <c r="W27">
+        <v>2231</v>
+      </c>
+      <c r="X27">
+        <v>154</v>
+      </c>
+      <c r="Y27">
+        <v>64</v>
+      </c>
+      <c r="Z27">
+        <v>56</v>
+      </c>
+      <c r="AA27">
+        <v>44</v>
+      </c>
+      <c r="AB27">
+        <v>38</v>
+      </c>
+      <c r="AC27">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>364</v>
+      </c>
+      <c r="B28">
+        <v>42</v>
+      </c>
+      <c r="C28">
+        <v>29.5</v>
+      </c>
+      <c r="D28">
+        <v>4.29</v>
+      </c>
+      <c r="E28">
+        <v>163</v>
+      </c>
+      <c r="F28">
+        <v>6242</v>
+      </c>
+      <c r="G28">
+        <v>5538</v>
+      </c>
+      <c r="H28">
+        <v>700</v>
+      </c>
+      <c r="I28">
+        <v>1421</v>
+      </c>
+      <c r="J28">
+        <v>296</v>
+      </c>
+      <c r="K28">
+        <v>23</v>
+      </c>
+      <c r="L28">
+        <v>165</v>
+      </c>
+      <c r="M28">
+        <v>670</v>
+      </c>
+      <c r="N28">
+        <v>73</v>
+      </c>
+      <c r="O28">
+        <v>38</v>
+      </c>
+      <c r="P28">
+        <v>589</v>
+      </c>
+      <c r="Q28">
+        <v>1171</v>
+      </c>
+      <c r="R28">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="S28">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="T28">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="U28">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="V28">
+        <v>106</v>
+      </c>
+      <c r="W28">
+        <v>2258</v>
+      </c>
+      <c r="X28">
+        <v>140</v>
+      </c>
+      <c r="Y28">
+        <v>36</v>
+      </c>
+      <c r="Z28">
+        <v>24</v>
+      </c>
+      <c r="AA28">
+        <v>55</v>
+      </c>
+      <c r="AB28">
+        <v>31</v>
+      </c>
+      <c r="AC28">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>378</v>
+      </c>
+      <c r="B29">
+        <v>46</v>
+      </c>
+      <c r="C29">
+        <v>29.6</v>
+      </c>
+      <c r="D29">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="E29">
+        <v>163</v>
+      </c>
+      <c r="F29">
+        <v>6196</v>
+      </c>
+      <c r="G29">
+        <v>5585</v>
+      </c>
+      <c r="H29">
+        <v>730</v>
+      </c>
+      <c r="I29">
+        <v>1465</v>
+      </c>
+      <c r="J29">
+        <v>262</v>
+      </c>
+      <c r="K29">
+        <v>23</v>
+      </c>
+      <c r="L29">
+        <v>176</v>
+      </c>
+      <c r="M29">
+        <v>691</v>
+      </c>
+      <c r="N29">
+        <v>149</v>
+      </c>
+      <c r="O29">
+        <v>46</v>
+      </c>
+      <c r="P29">
+        <v>462</v>
+      </c>
+      <c r="Q29">
+        <v>1067</v>
+      </c>
+      <c r="R29">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="S29">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="T29">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="U29">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="V29">
+        <v>100</v>
+      </c>
+      <c r="W29">
+        <v>2301</v>
+      </c>
+      <c r="X29">
+        <v>124</v>
+      </c>
+      <c r="Y29">
+        <v>61</v>
+      </c>
+      <c r="Z29">
+        <v>45</v>
+      </c>
+      <c r="AA29">
+        <v>42</v>
+      </c>
+      <c r="AB29">
+        <v>26</v>
+      </c>
+      <c r="AC29">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>390</v>
+      </c>
+      <c r="B30">
+        <v>53</v>
+      </c>
+      <c r="C30">
+        <v>28.9</v>
+      </c>
+      <c r="D30">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E30">
+        <v>162</v>
+      </c>
+      <c r="F30">
+        <v>6152</v>
+      </c>
+      <c r="G30">
+        <v>5537</v>
+      </c>
+      <c r="H30">
+        <v>712</v>
+      </c>
+      <c r="I30">
+        <v>1398</v>
+      </c>
+      <c r="J30">
+        <v>273</v>
+      </c>
+      <c r="K30">
+        <v>24</v>
+      </c>
+      <c r="L30">
+        <v>185</v>
+      </c>
+      <c r="M30">
+        <v>669</v>
+      </c>
+      <c r="N30">
+        <v>112</v>
+      </c>
+      <c r="O30">
+        <v>41</v>
+      </c>
+      <c r="P30">
+        <v>510</v>
+      </c>
+      <c r="Q30">
+        <v>1123</v>
+      </c>
+      <c r="R30">
+        <v>0.252</v>
+      </c>
+      <c r="S30">
+        <v>0.318</v>
+      </c>
+      <c r="T30">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="U30">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="V30">
+        <v>99</v>
+      </c>
+      <c r="W30">
+        <v>2274</v>
+      </c>
+      <c r="X30">
+        <v>133</v>
+      </c>
+      <c r="Y30">
+        <v>38</v>
+      </c>
+      <c r="Z30">
+        <v>29</v>
+      </c>
+      <c r="AA30">
+        <v>38</v>
+      </c>
+      <c r="AB30">
+        <v>19</v>
+      </c>
+      <c r="AC30">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>403</v>
+      </c>
+      <c r="B31">
+        <v>44</v>
+      </c>
+      <c r="C31">
+        <v>27.7</v>
+      </c>
+      <c r="D31">
+        <v>4.05</v>
+      </c>
+      <c r="E31">
+        <v>162</v>
+      </c>
+      <c r="F31">
+        <v>6047</v>
+      </c>
+      <c r="G31">
+        <v>5436</v>
+      </c>
+      <c r="H31">
+        <v>656</v>
+      </c>
+      <c r="I31">
+        <v>1365</v>
+      </c>
+      <c r="J31">
+        <v>259</v>
+      </c>
+      <c r="K31">
+        <v>27</v>
+      </c>
+      <c r="L31">
+        <v>161</v>
+      </c>
+      <c r="M31">
+        <v>621</v>
+      </c>
+      <c r="N31">
+        <v>88</v>
+      </c>
+      <c r="O31">
+        <v>28</v>
+      </c>
+      <c r="P31">
+        <v>464</v>
+      </c>
+      <c r="Q31">
+        <v>1192</v>
+      </c>
+      <c r="R31">
+        <v>0.251</v>
+      </c>
+      <c r="S31">
+        <v>0.313</v>
+      </c>
+      <c r="T31">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="U31">
+        <v>0.71</v>
+      </c>
+      <c r="V31">
+        <v>94</v>
+      </c>
+      <c r="W31">
+        <v>2161</v>
+      </c>
+      <c r="X31">
+        <v>115</v>
+      </c>
+      <c r="Y31">
+        <v>40</v>
+      </c>
+      <c r="Z31">
+        <v>68</v>
+      </c>
+      <c r="AA31">
+        <v>39</v>
+      </c>
+      <c r="AB31">
+        <v>35</v>
+      </c>
+      <c r="AC31">
+        <v>1071</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AJ31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>986</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E1" t="s">
+        <v>988</v>
+      </c>
+      <c r="F1" t="s">
+        <v>989</v>
+      </c>
+      <c r="G1" t="s">
+        <v>990</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="T1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V1" t="s">
+        <v>15</v>
+      </c>
+      <c r="W1" t="s">
+        <v>16</v>
+      </c>
+      <c r="X1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2">
+        <v>23</v>
+      </c>
+      <c r="C2">
+        <v>27.6</v>
+      </c>
+      <c r="D2">
+        <v>4.29</v>
+      </c>
+      <c r="E2">
+        <v>81</v>
+      </c>
+      <c r="F2">
+        <v>81</v>
+      </c>
+      <c r="G2">
+        <v>0.5</v>
+      </c>
+      <c r="H2">
+        <v>3.92</v>
+      </c>
+      <c r="I2">
+        <v>162</v>
+      </c>
+      <c r="J2">
+        <v>162</v>
+      </c>
+      <c r="K2">
+        <v>156</v>
+      </c>
+      <c r="L2">
+        <v>6</v>
+      </c>
+      <c r="M2">
+        <v>7</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
+      </c>
+      <c r="O2">
+        <v>38</v>
+      </c>
+      <c r="P2">
+        <v>1495</v>
+      </c>
+      <c r="Q2">
+        <v>1460</v>
+      </c>
+      <c r="R2">
+        <v>695</v>
+      </c>
+      <c r="S2">
+        <v>651</v>
+      </c>
+      <c r="T2">
+        <v>176</v>
+      </c>
+      <c r="U2">
+        <v>485</v>
+      </c>
+      <c r="V2">
+        <v>42</v>
+      </c>
+      <c r="W2">
+        <v>1218</v>
+      </c>
+      <c r="X2">
+        <v>60</v>
+      </c>
+      <c r="Y2">
+        <v>3</v>
+      </c>
+      <c r="Z2">
+        <v>84</v>
+      </c>
+      <c r="AA2">
+        <v>6338</v>
+      </c>
+      <c r="AB2">
+        <v>99</v>
+      </c>
+      <c r="AC2">
+        <v>4.04</v>
+      </c>
+      <c r="AD2">
+        <v>1.3009999999999999</v>
+      </c>
+      <c r="AE2">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AF2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AG2">
+        <v>2.9</v>
+      </c>
+      <c r="AH2">
+        <v>7.3</v>
+      </c>
+      <c r="AI2">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="AJ2">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3">
+        <v>21</v>
+      </c>
+      <c r="C3">
+        <v>27.2</v>
+      </c>
+      <c r="D3">
+        <v>3.38</v>
+      </c>
+      <c r="E3">
+        <v>96</v>
+      </c>
+      <c r="F3">
+        <v>66</v>
+      </c>
+      <c r="G3">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="H3">
+        <v>3.18</v>
+      </c>
+      <c r="I3">
+        <v>162</v>
+      </c>
+      <c r="J3">
+        <v>162</v>
+      </c>
+      <c r="K3">
+        <v>161</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>12</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>53</v>
+      </c>
+      <c r="P3">
+        <v>1450.1</v>
+      </c>
+      <c r="Q3">
+        <v>1326</v>
+      </c>
+      <c r="R3">
+        <v>548</v>
+      </c>
+      <c r="S3">
+        <v>512</v>
+      </c>
+      <c r="T3">
+        <v>127</v>
+      </c>
+      <c r="U3">
+        <v>409</v>
+      </c>
+      <c r="V3">
+        <v>35</v>
+      </c>
+      <c r="W3">
+        <v>1232</v>
+      </c>
+      <c r="X3">
+        <v>51</v>
+      </c>
+      <c r="Y3">
+        <v>3</v>
+      </c>
+      <c r="Z3">
+        <v>50</v>
+      </c>
+      <c r="AA3">
+        <v>5989</v>
+      </c>
+      <c r="AB3">
+        <v>118</v>
+      </c>
+      <c r="AC3">
+        <v>3.44</v>
+      </c>
+      <c r="AD3">
+        <v>1.196</v>
+      </c>
+      <c r="AE3">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AF3">
+        <v>0.8</v>
+      </c>
+      <c r="AG3">
+        <v>2.5</v>
+      </c>
+      <c r="AH3">
+        <v>7.6</v>
+      </c>
+      <c r="AI3">
+        <v>3.01</v>
+      </c>
+      <c r="AJ3">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4">
+        <v>26</v>
+      </c>
+      <c r="C4">
+        <v>27.9</v>
+      </c>
+      <c r="D4">
+        <v>4.38</v>
+      </c>
+      <c r="E4">
+        <v>85</v>
+      </c>
+      <c r="F4">
+        <v>77</v>
+      </c>
+      <c r="G4">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="H4">
+        <v>4.2</v>
+      </c>
+      <c r="I4">
+        <v>162</v>
+      </c>
+      <c r="J4">
+        <v>162</v>
+      </c>
+      <c r="K4">
+        <v>160</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>6</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>57</v>
+      </c>
+      <c r="P4">
+        <v>1453</v>
+      </c>
+      <c r="Q4">
+        <v>1438</v>
+      </c>
+      <c r="R4">
+        <v>709</v>
+      </c>
+      <c r="S4">
+        <v>678</v>
+      </c>
+      <c r="T4">
+        <v>202</v>
+      </c>
+      <c r="U4">
+        <v>473</v>
+      </c>
+      <c r="V4">
+        <v>32</v>
+      </c>
+      <c r="W4">
+        <v>1169</v>
+      </c>
+      <c r="X4">
+        <v>50</v>
+      </c>
+      <c r="Y4">
+        <v>3</v>
+      </c>
+      <c r="Z4">
+        <v>38</v>
+      </c>
+      <c r="AA4">
+        <v>6144</v>
+      </c>
+      <c r="AB4">
+        <v>98</v>
+      </c>
+      <c r="AC4">
+        <v>4.33</v>
+      </c>
+      <c r="AD4">
+        <v>1.3149999999999999</v>
+      </c>
+      <c r="AE4">
+        <v>8.9</v>
+      </c>
+      <c r="AF4">
+        <v>1.3</v>
+      </c>
+      <c r="AG4">
+        <v>2.9</v>
+      </c>
+      <c r="AH4">
+        <v>7.2</v>
+      </c>
+      <c r="AI4">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="AJ4">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5">
+        <v>26</v>
+      </c>
+      <c r="C5">
+        <v>30.2</v>
+      </c>
+      <c r="D5">
+        <v>4.05</v>
+      </c>
+      <c r="E5">
+        <v>97</v>
+      </c>
+      <c r="F5">
+        <v>65</v>
+      </c>
+      <c r="G5">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="H5">
+        <v>3.79</v>
+      </c>
+      <c r="I5">
+        <v>162</v>
+      </c>
+      <c r="J5">
+        <v>162</v>
+      </c>
+      <c r="K5">
+        <v>157</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <v>8</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <v>33</v>
+      </c>
+      <c r="P5">
+        <v>1454</v>
+      </c>
+      <c r="Q5">
+        <v>1366</v>
+      </c>
+      <c r="R5">
+        <v>656</v>
+      </c>
+      <c r="S5">
+        <v>613</v>
+      </c>
+      <c r="T5">
+        <v>156</v>
+      </c>
+      <c r="U5">
+        <v>524</v>
+      </c>
+      <c r="V5">
+        <v>10</v>
+      </c>
+      <c r="W5">
+        <v>1294</v>
+      </c>
+      <c r="X5">
+        <v>47</v>
+      </c>
+      <c r="Y5">
+        <v>5</v>
+      </c>
+      <c r="Z5">
+        <v>47</v>
+      </c>
+      <c r="AA5">
+        <v>6143</v>
+      </c>
+      <c r="AB5">
+        <v>109</v>
+      </c>
+      <c r="AC5">
+        <v>3.84</v>
+      </c>
+      <c r="AD5">
+        <v>1.3</v>
+      </c>
+      <c r="AE5">
+        <v>8.5</v>
+      </c>
+      <c r="AF5">
+        <v>1</v>
+      </c>
+      <c r="AG5">
+        <v>3.2</v>
+      </c>
+      <c r="AH5">
+        <v>8</v>
+      </c>
+      <c r="AI5">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="AJ5">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6">
+        <v>31</v>
+      </c>
+      <c r="C6">
+        <v>28.7</v>
+      </c>
+      <c r="D6">
+        <v>4.25</v>
+      </c>
+      <c r="E6">
+        <v>66</v>
+      </c>
+      <c r="F6">
+        <v>96</v>
+      </c>
+      <c r="G6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>162</v>
+      </c>
+      <c r="J6">
+        <v>162</v>
+      </c>
+      <c r="K6">
+        <v>159</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <v>6</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>39</v>
+      </c>
+      <c r="P6">
+        <v>1448</v>
+      </c>
+      <c r="Q6">
+        <v>1332</v>
+      </c>
+      <c r="R6">
+        <v>689</v>
+      </c>
+      <c r="S6">
+        <v>643</v>
+      </c>
+      <c r="T6">
+        <v>160</v>
+      </c>
+      <c r="U6">
+        <v>540</v>
+      </c>
+      <c r="V6">
+        <v>43</v>
+      </c>
+      <c r="W6">
+        <v>1184</v>
+      </c>
+      <c r="X6">
+        <v>62</v>
+      </c>
+      <c r="Y6">
+        <v>4</v>
+      </c>
+      <c r="Z6">
+        <v>59</v>
+      </c>
+      <c r="AA6">
+        <v>6149</v>
+      </c>
+      <c r="AB6">
+        <v>97</v>
+      </c>
+      <c r="AC6">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AD6">
+        <v>1.2929999999999999</v>
+      </c>
+      <c r="AE6">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="AF6">
+        <v>1</v>
+      </c>
+      <c r="AG6">
+        <v>3.4</v>
+      </c>
+      <c r="AH6">
+        <v>7.4</v>
+      </c>
+      <c r="AI6">
+        <v>2.19</v>
+      </c>
+      <c r="AJ6">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>27.1</v>
+      </c>
+      <c r="D7">
+        <v>4.46</v>
+      </c>
+      <c r="E7">
+        <v>63</v>
+      </c>
+      <c r="F7">
+        <v>99</v>
+      </c>
+      <c r="G7">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="H7">
+        <v>3.98</v>
+      </c>
+      <c r="I7">
+        <v>162</v>
+      </c>
+      <c r="J7">
+        <v>162</v>
+      </c>
+      <c r="K7">
+        <v>157</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>40</v>
+      </c>
+      <c r="P7">
+        <v>1455</v>
+      </c>
+      <c r="Q7">
+        <v>1424</v>
+      </c>
+      <c r="R7">
+        <v>723</v>
+      </c>
+      <c r="S7">
+        <v>643</v>
+      </c>
+      <c r="T7">
+        <v>182</v>
+      </c>
+      <c r="U7">
+        <v>509</v>
+      </c>
+      <c r="V7">
+        <v>24</v>
+      </c>
+      <c r="W7">
+        <v>1249</v>
+      </c>
+      <c r="X7">
+        <v>60</v>
+      </c>
+      <c r="Y7">
+        <v>4</v>
+      </c>
+      <c r="Z7">
+        <v>62</v>
+      </c>
+      <c r="AA7">
+        <v>6214</v>
+      </c>
+      <c r="AB7">
+        <v>106</v>
+      </c>
+      <c r="AC7">
+        <v>4.13</v>
+      </c>
+      <c r="AD7">
+        <v>1.329</v>
+      </c>
+      <c r="AE7">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AF7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AG7">
+        <v>3.1</v>
+      </c>
+      <c r="AH7">
+        <v>7.7</v>
+      </c>
+      <c r="AI7">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="AJ7">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>27.7</v>
+      </c>
+      <c r="D8">
+        <v>3.64</v>
+      </c>
+      <c r="E8">
+        <v>90</v>
+      </c>
+      <c r="F8">
+        <v>72</v>
+      </c>
+      <c r="G8">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="H8">
+        <v>3.38</v>
+      </c>
+      <c r="I8">
+        <v>162</v>
+      </c>
+      <c r="J8">
+        <v>162</v>
+      </c>
+      <c r="K8">
+        <v>157</v>
+      </c>
+      <c r="L8">
+        <v>5</v>
+      </c>
+      <c r="M8">
+        <v>17</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8">
+        <v>43</v>
+      </c>
+      <c r="P8">
+        <v>1473.2</v>
+      </c>
+      <c r="Q8">
+        <v>1294</v>
+      </c>
+      <c r="R8">
+        <v>589</v>
+      </c>
+      <c r="S8">
+        <v>554</v>
+      </c>
+      <c r="T8">
+        <v>170</v>
+      </c>
+      <c r="U8">
+        <v>435</v>
+      </c>
+      <c r="V8">
+        <v>28</v>
+      </c>
+      <c r="W8">
+        <v>1296</v>
+      </c>
+      <c r="X8">
+        <v>66</v>
+      </c>
+      <c r="Y8">
+        <v>5</v>
+      </c>
+      <c r="Z8">
+        <v>44</v>
+      </c>
+      <c r="AA8">
+        <v>6077</v>
+      </c>
+      <c r="AB8">
+        <v>112</v>
+      </c>
+      <c r="AC8">
+        <v>3.81</v>
+      </c>
+      <c r="AD8">
+        <v>1.173</v>
+      </c>
+      <c r="AE8">
+        <v>7.9</v>
+      </c>
+      <c r="AF8">
+        <v>1</v>
+      </c>
+      <c r="AG8">
+        <v>2.7</v>
+      </c>
+      <c r="AH8">
+        <v>7.9</v>
+      </c>
+      <c r="AI8">
+        <v>2.98</v>
+      </c>
+      <c r="AJ8">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9">
+        <v>28</v>
+      </c>
+      <c r="C9">
+        <v>27.5</v>
+      </c>
+      <c r="D9">
+        <v>4.09</v>
+      </c>
+      <c r="E9">
+        <v>92</v>
+      </c>
+      <c r="F9">
+        <v>70</v>
+      </c>
+      <c r="G9">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="H9">
+        <v>3.82</v>
+      </c>
+      <c r="I9">
+        <v>162</v>
+      </c>
+      <c r="J9">
+        <v>162</v>
+      </c>
+      <c r="K9">
+        <v>159</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <v>16</v>
+      </c>
+      <c r="N9">
+        <v>3</v>
+      </c>
+      <c r="O9">
+        <v>38</v>
+      </c>
+      <c r="P9">
+        <v>1441.1</v>
+      </c>
+      <c r="Q9">
+        <v>1359</v>
+      </c>
+      <c r="R9">
+        <v>662</v>
+      </c>
+      <c r="S9">
+        <v>611</v>
+      </c>
+      <c r="T9">
+        <v>147</v>
+      </c>
+      <c r="U9">
+        <v>554</v>
+      </c>
+      <c r="V9">
+        <v>26</v>
+      </c>
+      <c r="W9">
+        <v>1379</v>
+      </c>
+      <c r="X9">
+        <v>58</v>
+      </c>
+      <c r="Y9">
+        <v>3</v>
+      </c>
+      <c r="Z9">
+        <v>71</v>
+      </c>
+      <c r="AA9">
+        <v>6154</v>
+      </c>
+      <c r="AB9">
+        <v>100</v>
+      </c>
+      <c r="AC9">
+        <v>3.73</v>
+      </c>
+      <c r="AD9">
+        <v>1.327</v>
+      </c>
+      <c r="AE9">
+        <v>8.5</v>
+      </c>
+      <c r="AF9">
+        <v>0.9</v>
+      </c>
+      <c r="AG9">
+        <v>3.5</v>
+      </c>
+      <c r="AH9">
+        <v>8.6</v>
+      </c>
+      <c r="AI9">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="AJ9">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>28.3</v>
+      </c>
+      <c r="D10">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="E10">
+        <v>74</v>
+      </c>
+      <c r="F10">
+        <v>88</v>
+      </c>
+      <c r="G10">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="H10">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="I10">
+        <v>162</v>
+      </c>
+      <c r="J10">
+        <v>162</v>
+      </c>
+      <c r="K10">
+        <v>161</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>5</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>35</v>
+      </c>
+      <c r="P10">
+        <v>1436</v>
+      </c>
+      <c r="Q10">
+        <v>1545</v>
+      </c>
+      <c r="R10">
+        <v>760</v>
+      </c>
+      <c r="S10">
+        <v>708</v>
+      </c>
+      <c r="T10">
+        <v>136</v>
+      </c>
+      <c r="U10">
+        <v>517</v>
+      </c>
+      <c r="V10">
+        <v>52</v>
+      </c>
+      <c r="W10">
+        <v>1064</v>
+      </c>
+      <c r="X10">
+        <v>40</v>
+      </c>
+      <c r="Y10">
+        <v>15</v>
+      </c>
+      <c r="Z10">
+        <v>62</v>
+      </c>
+      <c r="AA10">
+        <v>6248</v>
+      </c>
+      <c r="AB10">
+        <v>101</v>
+      </c>
+      <c r="AC10">
+        <v>3.96</v>
+      </c>
+      <c r="AD10">
+        <v>1.4359999999999999</v>
+      </c>
+      <c r="AE10">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="AF10">
+        <v>0.9</v>
+      </c>
+      <c r="AG10">
+        <v>3.2</v>
+      </c>
+      <c r="AH10">
+        <v>6.7</v>
+      </c>
+      <c r="AI10">
+        <v>2.06</v>
+      </c>
+      <c r="AJ10">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>28.4</v>
+      </c>
+      <c r="D11">
+        <v>3.85</v>
+      </c>
+      <c r="E11">
+        <v>93</v>
+      </c>
+      <c r="F11">
+        <v>69</v>
+      </c>
+      <c r="G11">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="H11">
+        <v>3.61</v>
+      </c>
+      <c r="I11">
+        <v>162</v>
+      </c>
+      <c r="J11">
+        <v>162</v>
+      </c>
+      <c r="K11">
+        <v>159</v>
+      </c>
+      <c r="L11">
+        <v>3</v>
+      </c>
+      <c r="M11">
+        <v>12</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>39</v>
+      </c>
+      <c r="P11">
+        <v>1462.2</v>
+      </c>
+      <c r="Q11">
+        <v>1369</v>
+      </c>
+      <c r="R11">
+        <v>624</v>
+      </c>
+      <c r="S11">
+        <v>587</v>
+      </c>
+      <c r="T11">
+        <v>128</v>
+      </c>
+      <c r="U11">
+        <v>462</v>
+      </c>
+      <c r="V11">
+        <v>29</v>
+      </c>
+      <c r="W11">
+        <v>1428</v>
+      </c>
+      <c r="X11">
+        <v>42</v>
+      </c>
+      <c r="Y11">
+        <v>7</v>
+      </c>
+      <c r="Z11">
+        <v>63</v>
+      </c>
+      <c r="AA11">
+        <v>6119</v>
+      </c>
+      <c r="AB11">
+        <v>116</v>
+      </c>
+      <c r="AC11">
+        <v>3.27</v>
+      </c>
+      <c r="AD11">
+        <v>1.252</v>
+      </c>
+      <c r="AE11">
+        <v>8.4</v>
+      </c>
+      <c r="AF11">
+        <v>0.8</v>
+      </c>
+      <c r="AG11">
+        <v>2.8</v>
+      </c>
+      <c r="AH11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AI11">
+        <v>3.09</v>
+      </c>
+      <c r="AJ11">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>173</v>
+      </c>
+      <c r="B12">
+        <v>26</v>
+      </c>
+      <c r="C12">
+        <v>27.2</v>
+      </c>
+      <c r="D12">
+        <v>5.23</v>
+      </c>
+      <c r="E12">
+        <v>51</v>
+      </c>
+      <c r="F12">
+        <v>111</v>
+      </c>
+      <c r="G12">
+        <v>0.315</v>
+      </c>
+      <c r="H12">
+        <v>4.79</v>
+      </c>
+      <c r="I12">
+        <v>162</v>
+      </c>
+      <c r="J12">
+        <v>162</v>
+      </c>
+      <c r="K12">
+        <v>160</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <v>5</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>32</v>
+      </c>
+      <c r="P12">
+        <v>1440</v>
+      </c>
+      <c r="Q12">
+        <v>1530</v>
+      </c>
+      <c r="R12">
+        <v>848</v>
+      </c>
+      <c r="S12">
+        <v>766</v>
+      </c>
+      <c r="T12">
+        <v>191</v>
+      </c>
+      <c r="U12">
+        <v>616</v>
+      </c>
+      <c r="V12">
+        <v>32</v>
+      </c>
+      <c r="W12">
+        <v>1084</v>
+      </c>
+      <c r="X12">
+        <v>56</v>
+      </c>
+      <c r="Y12">
+        <v>6</v>
+      </c>
+      <c r="Z12">
+        <v>61</v>
+      </c>
+      <c r="AA12">
+        <v>6370</v>
+      </c>
+      <c r="AB12">
+        <v>85</v>
+      </c>
+      <c r="AC12">
+        <v>4.67</v>
+      </c>
+      <c r="AD12">
+        <v>1.49</v>
+      </c>
+      <c r="AE12">
+        <v>9.6</v>
+      </c>
+      <c r="AF12">
+        <v>1.2</v>
+      </c>
+      <c r="AG12">
+        <v>3.9</v>
+      </c>
+      <c r="AH12">
+        <v>6.8</v>
+      </c>
+      <c r="AI12">
+        <v>1.76</v>
+      </c>
+      <c r="AJ12">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>185</v>
+      </c>
+      <c r="B13">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>28.9</v>
+      </c>
+      <c r="D13">
+        <v>3.71</v>
+      </c>
+      <c r="E13">
+        <v>86</v>
+      </c>
+      <c r="F13">
+        <v>76</v>
+      </c>
+      <c r="G13">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="H13">
+        <v>3.45</v>
+      </c>
+      <c r="I13">
+        <v>162</v>
+      </c>
+      <c r="J13">
+        <v>162</v>
+      </c>
+      <c r="K13">
+        <v>157</v>
+      </c>
+      <c r="L13">
+        <v>5</v>
+      </c>
+      <c r="M13">
+        <v>12</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
+      </c>
+      <c r="O13">
+        <v>52</v>
+      </c>
+      <c r="P13">
+        <v>1448.1</v>
+      </c>
+      <c r="Q13">
+        <v>1366</v>
+      </c>
+      <c r="R13">
+        <v>601</v>
+      </c>
+      <c r="S13">
+        <v>555</v>
+      </c>
+      <c r="T13">
+        <v>155</v>
+      </c>
+      <c r="U13">
+        <v>469</v>
+      </c>
+      <c r="V13">
+        <v>21</v>
+      </c>
+      <c r="W13">
+        <v>1208</v>
+      </c>
+      <c r="X13">
+        <v>41</v>
+      </c>
+      <c r="Y13">
+        <v>4</v>
+      </c>
+      <c r="Z13">
+        <v>60</v>
+      </c>
+      <c r="AA13">
+        <v>6049</v>
+      </c>
+      <c r="AB13">
+        <v>120</v>
+      </c>
+      <c r="AC13">
+        <v>3.83</v>
+      </c>
+      <c r="AD13">
+        <v>1.2669999999999999</v>
+      </c>
+      <c r="AE13">
+        <v>8.5</v>
+      </c>
+      <c r="AF13">
+        <v>1</v>
+      </c>
+      <c r="AG13">
+        <v>2.9</v>
+      </c>
+      <c r="AH13">
+        <v>7.5</v>
+      </c>
+      <c r="AI13">
+        <v>2.58</v>
+      </c>
+      <c r="AJ13">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>196</v>
+      </c>
+      <c r="B14">
+        <v>26</v>
+      </c>
+      <c r="C14">
+        <v>29.1</v>
+      </c>
+      <c r="D14">
+        <v>4.55</v>
+      </c>
+      <c r="E14">
+        <v>78</v>
+      </c>
+      <c r="F14">
+        <v>84</v>
+      </c>
+      <c r="G14">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="H14">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="I14">
+        <v>162</v>
+      </c>
+      <c r="J14">
+        <v>162</v>
+      </c>
+      <c r="K14">
+        <v>158</v>
+      </c>
+      <c r="L14">
+        <v>4</v>
+      </c>
+      <c r="M14">
+        <v>12</v>
+      </c>
+      <c r="N14">
+        <v>2</v>
+      </c>
+      <c r="O14">
+        <v>41</v>
+      </c>
+      <c r="P14">
+        <v>1457.2</v>
+      </c>
+      <c r="Q14">
+        <v>1475</v>
+      </c>
+      <c r="R14">
+        <v>737</v>
+      </c>
+      <c r="S14">
+        <v>685</v>
+      </c>
+      <c r="T14">
+        <v>167</v>
+      </c>
+      <c r="U14">
+        <v>533</v>
+      </c>
+      <c r="V14">
+        <v>36</v>
+      </c>
+      <c r="W14">
+        <v>1200</v>
+      </c>
+      <c r="X14">
+        <v>45</v>
+      </c>
+      <c r="Y14">
+        <v>4</v>
+      </c>
+      <c r="Z14">
+        <v>74</v>
+      </c>
+      <c r="AA14">
+        <v>6298</v>
+      </c>
+      <c r="AB14">
+        <v>89</v>
+      </c>
+      <c r="AC14">
+        <v>4.08</v>
+      </c>
+      <c r="AD14">
+        <v>1.3779999999999999</v>
+      </c>
+      <c r="AE14">
+        <v>9.1</v>
+      </c>
+      <c r="AF14">
+        <v>1</v>
+      </c>
+      <c r="AG14">
+        <v>3.3</v>
+      </c>
+      <c r="AH14">
+        <v>7.4</v>
+      </c>
+      <c r="AI14">
+        <v>2.25</v>
+      </c>
+      <c r="AJ14">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>207</v>
+      </c>
+      <c r="B15">
+        <v>27</v>
+      </c>
+      <c r="C15">
+        <v>28.1</v>
+      </c>
+      <c r="D15">
+        <v>3.59</v>
+      </c>
+      <c r="E15">
+        <v>92</v>
+      </c>
+      <c r="F15">
+        <v>70</v>
+      </c>
+      <c r="G15">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="H15">
+        <v>3.25</v>
+      </c>
+      <c r="I15">
+        <v>162</v>
+      </c>
+      <c r="J15">
+        <v>162</v>
+      </c>
+      <c r="K15">
+        <v>155</v>
+      </c>
+      <c r="L15">
+        <v>7</v>
+      </c>
+      <c r="M15">
+        <v>22</v>
+      </c>
+      <c r="N15">
+        <v>4</v>
+      </c>
+      <c r="O15">
+        <v>46</v>
+      </c>
+      <c r="P15">
+        <v>1450.1</v>
+      </c>
+      <c r="Q15">
+        <v>1321</v>
+      </c>
+      <c r="R15">
+        <v>582</v>
+      </c>
+      <c r="S15">
+        <v>524</v>
+      </c>
+      <c r="T15">
+        <v>127</v>
+      </c>
+      <c r="U15">
+        <v>460</v>
+      </c>
+      <c r="V15">
+        <v>44</v>
+      </c>
+      <c r="W15">
+        <v>1292</v>
+      </c>
+      <c r="X15">
+        <v>43</v>
+      </c>
+      <c r="Y15">
+        <v>3</v>
+      </c>
+      <c r="Z15">
+        <v>66</v>
+      </c>
+      <c r="AA15">
+        <v>6032</v>
+      </c>
+      <c r="AB15">
+        <v>110</v>
+      </c>
+      <c r="AC15">
+        <v>3.44</v>
+      </c>
+      <c r="AD15">
+        <v>1.228</v>
+      </c>
+      <c r="AE15">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AF15">
+        <v>0.8</v>
+      </c>
+      <c r="AG15">
+        <v>2.9</v>
+      </c>
+      <c r="AH15">
+        <v>8</v>
+      </c>
+      <c r="AI15">
+        <v>2.81</v>
+      </c>
+      <c r="AJ15">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>220</v>
+      </c>
+      <c r="B16">
+        <v>26</v>
+      </c>
+      <c r="C16">
+        <v>26</v>
+      </c>
+      <c r="D16">
+        <v>3.99</v>
+      </c>
+      <c r="E16">
+        <v>62</v>
+      </c>
+      <c r="F16">
+        <v>100</v>
+      </c>
+      <c r="G16">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="H16">
+        <v>3.71</v>
+      </c>
+      <c r="I16">
+        <v>162</v>
+      </c>
+      <c r="J16">
+        <v>162</v>
+      </c>
+      <c r="K16">
+        <v>160</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>13</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>36</v>
+      </c>
+      <c r="P16">
+        <v>1460</v>
+      </c>
+      <c r="Q16">
+        <v>1376</v>
+      </c>
+      <c r="R16">
+        <v>646</v>
+      </c>
+      <c r="S16">
+        <v>602</v>
+      </c>
+      <c r="T16">
+        <v>121</v>
+      </c>
+      <c r="U16">
+        <v>526</v>
+      </c>
+      <c r="V16">
+        <v>58</v>
+      </c>
+      <c r="W16">
+        <v>1177</v>
+      </c>
+      <c r="X16">
+        <v>47</v>
+      </c>
+      <c r="Y16">
+        <v>2</v>
+      </c>
+      <c r="Z16">
+        <v>53</v>
+      </c>
+      <c r="AA16">
+        <v>6166</v>
+      </c>
+      <c r="AB16">
+        <v>104</v>
+      </c>
+      <c r="AC16">
+        <v>3.69</v>
+      </c>
+      <c r="AD16">
+        <v>1.3029999999999999</v>
+      </c>
+      <c r="AE16">
+        <v>8.5</v>
+      </c>
+      <c r="AF16">
+        <v>0.7</v>
+      </c>
+      <c r="AG16">
+        <v>3.2</v>
+      </c>
+      <c r="AH16">
+        <v>7.3</v>
+      </c>
+      <c r="AI16">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="AJ16">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>236</v>
+      </c>
+      <c r="B17">
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>28.8</v>
+      </c>
+      <c r="D17">
+        <v>4.24</v>
+      </c>
+      <c r="E17">
+        <v>74</v>
+      </c>
+      <c r="F17">
+        <v>88</v>
+      </c>
+      <c r="G17">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="H17">
+        <v>3.84</v>
+      </c>
+      <c r="I17">
+        <v>162</v>
+      </c>
+      <c r="J17">
+        <v>162</v>
+      </c>
+      <c r="K17">
+        <v>158</v>
+      </c>
+      <c r="L17">
+        <v>4</v>
+      </c>
+      <c r="M17">
+        <v>15</v>
+      </c>
+      <c r="N17">
+        <v>2</v>
+      </c>
+      <c r="O17">
+        <v>40</v>
+      </c>
+      <c r="P17">
+        <v>1442.2</v>
+      </c>
+      <c r="Q17">
+        <v>1401</v>
+      </c>
+      <c r="R17">
+        <v>687</v>
+      </c>
+      <c r="S17">
+        <v>615</v>
+      </c>
+      <c r="T17">
+        <v>175</v>
+      </c>
+      <c r="U17">
+        <v>466</v>
+      </c>
+      <c r="V17">
+        <v>29</v>
+      </c>
+      <c r="W17">
+        <v>1125</v>
+      </c>
+      <c r="X17">
+        <v>43</v>
+      </c>
+      <c r="Y17">
+        <v>2</v>
+      </c>
+      <c r="Z17">
+        <v>51</v>
+      </c>
+      <c r="AA17">
+        <v>6100</v>
+      </c>
+      <c r="AB17">
+        <v>101</v>
+      </c>
+      <c r="AC17">
+        <v>4.12</v>
+      </c>
+      <c r="AD17">
+        <v>1.294</v>
+      </c>
+      <c r="AE17">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AF17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AG17">
+        <v>2.9</v>
+      </c>
+      <c r="AH17">
+        <v>7</v>
+      </c>
+      <c r="AI17">
+        <v>2.41</v>
+      </c>
+      <c r="AJ17">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>249</v>
+      </c>
+      <c r="B18">
+        <v>23</v>
+      </c>
+      <c r="C18">
+        <v>28.3</v>
+      </c>
+      <c r="D18">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="E18">
+        <v>66</v>
+      </c>
+      <c r="F18">
+        <v>96</v>
+      </c>
+      <c r="G18">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="H18">
+        <v>4.55</v>
+      </c>
+      <c r="I18">
+        <v>162</v>
+      </c>
+      <c r="J18">
+        <v>162</v>
+      </c>
+      <c r="K18">
+        <v>161</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>7</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>40</v>
+      </c>
+      <c r="P18">
+        <v>1450.1</v>
+      </c>
+      <c r="Q18">
+        <v>1591</v>
+      </c>
+      <c r="R18">
+        <v>788</v>
+      </c>
+      <c r="S18">
+        <v>733</v>
+      </c>
+      <c r="T18">
+        <v>168</v>
+      </c>
+      <c r="U18">
+        <v>458</v>
+      </c>
+      <c r="V18">
+        <v>31</v>
+      </c>
+      <c r="W18">
+        <v>985</v>
+      </c>
+      <c r="X18">
+        <v>44</v>
+      </c>
+      <c r="Y18">
+        <v>4</v>
+      </c>
+      <c r="Z18">
+        <v>50</v>
+      </c>
+      <c r="AA18">
+        <v>6257</v>
+      </c>
+      <c r="AB18">
+        <v>90</v>
+      </c>
+      <c r="AC18">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="AD18">
+        <v>1.413</v>
+      </c>
+      <c r="AE18">
+        <v>9.9</v>
+      </c>
+      <c r="AF18">
+        <v>1</v>
+      </c>
+      <c r="AG18">
+        <v>2.8</v>
+      </c>
+      <c r="AH18">
+        <v>6.1</v>
+      </c>
+      <c r="AI18">
+        <v>2.15</v>
+      </c>
+      <c r="AJ18">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>260</v>
+      </c>
+      <c r="B19">
+        <v>29</v>
+      </c>
+      <c r="C19">
+        <v>29.1</v>
+      </c>
+      <c r="D19">
+        <v>4.22</v>
+      </c>
+      <c r="E19">
+        <v>74</v>
+      </c>
+      <c r="F19">
+        <v>88</v>
+      </c>
+      <c r="G19">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="H19">
+        <v>3.77</v>
+      </c>
+      <c r="I19">
+        <v>162</v>
+      </c>
+      <c r="J19">
+        <v>162</v>
+      </c>
+      <c r="K19">
+        <v>158</v>
+      </c>
+      <c r="L19">
+        <v>4</v>
+      </c>
+      <c r="M19">
+        <v>10</v>
+      </c>
+      <c r="N19">
+        <v>2</v>
+      </c>
+      <c r="O19">
+        <v>40</v>
+      </c>
+      <c r="P19">
+        <v>1476.2</v>
+      </c>
+      <c r="Q19">
+        <v>1442</v>
+      </c>
+      <c r="R19">
+        <v>684</v>
+      </c>
+      <c r="S19">
+        <v>618</v>
+      </c>
+      <c r="T19">
+        <v>152</v>
+      </c>
+      <c r="U19">
+        <v>458</v>
+      </c>
+      <c r="V19">
+        <v>38</v>
+      </c>
+      <c r="W19">
+        <v>1209</v>
+      </c>
+      <c r="X19">
+        <v>54</v>
+      </c>
+      <c r="Y19">
+        <v>3</v>
+      </c>
+      <c r="Z19">
+        <v>47</v>
+      </c>
+      <c r="AA19">
+        <v>6249</v>
+      </c>
+      <c r="AB19">
+        <v>95</v>
+      </c>
+      <c r="AC19">
+        <v>3.79</v>
+      </c>
+      <c r="AD19">
+        <v>1.2869999999999999</v>
+      </c>
+      <c r="AE19">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AF19">
+        <v>0.9</v>
+      </c>
+      <c r="AG19">
+        <v>2.8</v>
+      </c>
+      <c r="AH19">
+        <v>7.4</v>
+      </c>
+      <c r="AI19">
+        <v>2.64</v>
+      </c>
+      <c r="AJ19">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>270</v>
+      </c>
+      <c r="B20">
+        <v>24</v>
+      </c>
+      <c r="C20">
+        <v>31.8</v>
+      </c>
+      <c r="D20">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="E20">
+        <v>85</v>
+      </c>
+      <c r="F20">
+        <v>77</v>
+      </c>
+      <c r="G20">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="H20">
+        <v>3.94</v>
+      </c>
+      <c r="I20">
+        <v>162</v>
+      </c>
+      <c r="J20">
+        <v>162</v>
+      </c>
+      <c r="K20">
+        <v>155</v>
+      </c>
+      <c r="L20">
+        <v>7</v>
+      </c>
+      <c r="M20">
+        <v>10</v>
+      </c>
+      <c r="N20">
+        <v>3</v>
+      </c>
+      <c r="O20">
+        <v>49</v>
+      </c>
+      <c r="P20">
+        <v>1447.1</v>
+      </c>
+      <c r="Q20">
+        <v>1452</v>
+      </c>
+      <c r="R20">
+        <v>671</v>
+      </c>
+      <c r="S20">
+        <v>633</v>
+      </c>
+      <c r="T20">
+        <v>171</v>
+      </c>
+      <c r="U20">
+        <v>437</v>
+      </c>
+      <c r="V20">
+        <v>34</v>
+      </c>
+      <c r="W20">
+        <v>1233</v>
+      </c>
+      <c r="X20">
+        <v>51</v>
+      </c>
+      <c r="Y20">
+        <v>1</v>
+      </c>
+      <c r="Z20">
+        <v>57</v>
+      </c>
+      <c r="AA20">
+        <v>6128</v>
+      </c>
+      <c r="AB20">
+        <v>102</v>
+      </c>
+      <c r="AC20">
+        <v>3.89</v>
+      </c>
+      <c r="AD20">
+        <v>1.3049999999999999</v>
+      </c>
+      <c r="AE20">
+        <v>9</v>
+      </c>
+      <c r="AF20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AG20">
+        <v>2.7</v>
+      </c>
+      <c r="AH20">
+        <v>7.7</v>
+      </c>
+      <c r="AI20">
+        <v>2.82</v>
+      </c>
+      <c r="AJ20">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>281</v>
+      </c>
+      <c r="B21">
+        <v>18</v>
+      </c>
+      <c r="C21">
+        <v>28.3</v>
+      </c>
+      <c r="D21">
+        <v>3.86</v>
+      </c>
+      <c r="E21">
+        <v>96</v>
+      </c>
+      <c r="F21">
+        <v>66</v>
+      </c>
+      <c r="G21">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="H21">
+        <v>3.56</v>
+      </c>
+      <c r="I21">
+        <v>162</v>
+      </c>
+      <c r="J21">
+        <v>162</v>
+      </c>
+      <c r="K21">
+        <v>156</v>
+      </c>
+      <c r="L21">
+        <v>6</v>
+      </c>
+      <c r="M21">
+        <v>13</v>
+      </c>
+      <c r="N21">
+        <v>4</v>
+      </c>
+      <c r="O21">
+        <v>46</v>
+      </c>
+      <c r="P21">
+        <v>1452</v>
+      </c>
+      <c r="Q21">
+        <v>1339</v>
+      </c>
+      <c r="R21">
+        <v>625</v>
+      </c>
+      <c r="S21">
+        <v>574</v>
+      </c>
+      <c r="T21">
+        <v>163</v>
+      </c>
+      <c r="U21">
+        <v>428</v>
+      </c>
+      <c r="V21">
+        <v>23</v>
+      </c>
+      <c r="W21">
+        <v>1183</v>
+      </c>
+      <c r="X21">
+        <v>35</v>
+      </c>
+      <c r="Y21">
+        <v>1</v>
+      </c>
+      <c r="Z21">
+        <v>56</v>
+      </c>
+      <c r="AA21">
+        <v>6069</v>
+      </c>
+      <c r="AB21">
+        <v>109</v>
+      </c>
+      <c r="AC21">
+        <v>3.83</v>
+      </c>
+      <c r="AD21">
+        <v>1.2170000000000001</v>
+      </c>
+      <c r="AE21">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="AF21">
+        <v>1</v>
+      </c>
+      <c r="AG21">
+        <v>2.7</v>
+      </c>
+      <c r="AH21">
+        <v>7.3</v>
+      </c>
+      <c r="AI21">
+        <v>2.76</v>
+      </c>
+      <c r="AJ21">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>294</v>
+      </c>
+      <c r="B22">
+        <v>27</v>
+      </c>
+      <c r="C22">
+        <v>28.7</v>
+      </c>
+      <c r="D22">
+        <v>4.62</v>
+      </c>
+      <c r="E22">
+        <v>73</v>
+      </c>
+      <c r="F22">
+        <v>89</v>
+      </c>
+      <c r="G22">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="H22">
+        <v>4.32</v>
+      </c>
+      <c r="I22">
+        <v>162</v>
+      </c>
+      <c r="J22">
+        <v>162</v>
+      </c>
+      <c r="K22">
+        <v>156</v>
+      </c>
+      <c r="L22">
+        <v>6</v>
+      </c>
+      <c r="M22">
+        <v>3</v>
+      </c>
+      <c r="N22">
+        <v>2</v>
+      </c>
+      <c r="O22">
+        <v>32</v>
+      </c>
+      <c r="P22">
+        <v>1436.1</v>
+      </c>
+      <c r="Q22">
+        <v>1465</v>
+      </c>
+      <c r="R22">
+        <v>749</v>
+      </c>
+      <c r="S22">
+        <v>689</v>
+      </c>
+      <c r="T22">
+        <v>152</v>
+      </c>
+      <c r="U22">
+        <v>506</v>
+      </c>
+      <c r="V22">
+        <v>33</v>
+      </c>
+      <c r="W22">
+        <v>1199</v>
+      </c>
+      <c r="X22">
+        <v>62</v>
+      </c>
+      <c r="Y22">
+        <v>6</v>
+      </c>
+      <c r="Z22">
+        <v>48</v>
+      </c>
+      <c r="AA22">
+        <v>6213</v>
+      </c>
+      <c r="AB22">
+        <v>87</v>
+      </c>
+      <c r="AC22">
+        <v>3.94</v>
+      </c>
+      <c r="AD22">
+        <v>1.3720000000000001</v>
+      </c>
+      <c r="AE22">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AF22">
+        <v>1</v>
+      </c>
+      <c r="AG22">
+        <v>3.2</v>
+      </c>
+      <c r="AH22">
+        <v>7.5</v>
+      </c>
+      <c r="AI22">
+        <v>2.37</v>
+      </c>
+      <c r="AJ22">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>306</v>
+      </c>
+      <c r="B23">
+        <v>28</v>
+      </c>
+      <c r="C23">
+        <v>28.7</v>
+      </c>
+      <c r="D23">
+        <v>3.56</v>
+      </c>
+      <c r="E23">
+        <v>94</v>
+      </c>
+      <c r="F23">
+        <v>68</v>
+      </c>
+      <c r="G23">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H23">
+        <v>3.26</v>
+      </c>
+      <c r="I23">
+        <v>162</v>
+      </c>
+      <c r="J23">
+        <v>162</v>
+      </c>
+      <c r="K23">
+        <v>159</v>
+      </c>
+      <c r="L23">
+        <v>3</v>
+      </c>
+      <c r="M23">
+        <v>16</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>55</v>
+      </c>
+      <c r="P23">
+        <v>1470.2</v>
+      </c>
+      <c r="Q23">
+        <v>1299</v>
+      </c>
+      <c r="R23">
+        <v>577</v>
+      </c>
+      <c r="S23">
+        <v>533</v>
+      </c>
+      <c r="T23">
+        <v>101</v>
+      </c>
+      <c r="U23">
+        <v>515</v>
+      </c>
+      <c r="V23">
+        <v>26</v>
+      </c>
+      <c r="W23">
+        <v>1261</v>
+      </c>
+      <c r="X23">
+        <v>70</v>
+      </c>
+      <c r="Y23">
+        <v>6</v>
+      </c>
+      <c r="Z23">
+        <v>81</v>
+      </c>
+      <c r="AA23">
+        <v>6147</v>
+      </c>
+      <c r="AB23">
+        <v>109</v>
+      </c>
+      <c r="AC23">
+        <v>3.42</v>
+      </c>
+      <c r="AD23">
+        <v>1.2330000000000001</v>
+      </c>
+      <c r="AE23">
+        <v>7.9</v>
+      </c>
+      <c r="AF23">
+        <v>0.6</v>
+      </c>
+      <c r="AG23">
+        <v>3.2</v>
+      </c>
+      <c r="AH23">
+        <v>7.7</v>
+      </c>
+      <c r="AI23">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="AJ23">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>318</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>28.8</v>
+      </c>
+      <c r="D24">
+        <v>4.32</v>
+      </c>
+      <c r="E24">
+        <v>76</v>
+      </c>
+      <c r="F24">
+        <v>86</v>
+      </c>
+      <c r="G24">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="H24">
+        <v>3.98</v>
+      </c>
+      <c r="I24">
+        <v>162</v>
+      </c>
+      <c r="J24">
+        <v>162</v>
+      </c>
+      <c r="K24">
+        <v>159</v>
+      </c>
+      <c r="L24">
+        <v>3</v>
+      </c>
+      <c r="M24">
+        <v>6</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>40</v>
+      </c>
+      <c r="P24">
+        <v>1455</v>
+      </c>
+      <c r="Q24">
+        <v>1407</v>
+      </c>
+      <c r="R24">
+        <v>700</v>
+      </c>
+      <c r="S24">
+        <v>643</v>
+      </c>
+      <c r="T24">
+        <v>156</v>
+      </c>
+      <c r="U24">
+        <v>525</v>
+      </c>
+      <c r="V24">
+        <v>31</v>
+      </c>
+      <c r="W24">
+        <v>1171</v>
+      </c>
+      <c r="X24">
+        <v>40</v>
+      </c>
+      <c r="Y24">
+        <v>2</v>
+      </c>
+      <c r="Z24">
+        <v>51</v>
+      </c>
+      <c r="AA24">
+        <v>6179</v>
+      </c>
+      <c r="AB24">
+        <v>86</v>
+      </c>
+      <c r="AC24">
+        <v>4</v>
+      </c>
+      <c r="AD24">
+        <v>1.3280000000000001</v>
+      </c>
+      <c r="AE24">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AF24">
+        <v>1</v>
+      </c>
+      <c r="AG24">
+        <v>3.2</v>
+      </c>
+      <c r="AH24">
+        <v>7.2</v>
+      </c>
+      <c r="AI24">
+        <v>2.23</v>
+      </c>
+      <c r="AJ24">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>331</v>
+      </c>
+      <c r="B25">
+        <v>22</v>
+      </c>
+      <c r="C25">
+        <v>28</v>
+      </c>
+      <c r="D25">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="E25">
+        <v>71</v>
+      </c>
+      <c r="F25">
+        <v>91</v>
+      </c>
+      <c r="G25">
+        <v>0.438</v>
+      </c>
+      <c r="H25">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="I25">
+        <v>162</v>
+      </c>
+      <c r="J25">
+        <v>162</v>
+      </c>
+      <c r="K25">
+        <v>158</v>
+      </c>
+      <c r="L25">
+        <v>4</v>
+      </c>
+      <c r="M25">
+        <v>14</v>
+      </c>
+      <c r="N25">
+        <v>2</v>
+      </c>
+      <c r="O25">
+        <v>43</v>
+      </c>
+      <c r="P25">
+        <v>1465</v>
+      </c>
+      <c r="Q25">
+        <v>1467</v>
+      </c>
+      <c r="R25">
+        <v>754</v>
+      </c>
+      <c r="S25">
+        <v>702</v>
+      </c>
+      <c r="T25">
+        <v>174</v>
+      </c>
+      <c r="U25">
+        <v>478</v>
+      </c>
+      <c r="V25">
+        <v>48</v>
+      </c>
+      <c r="W25">
+        <v>1297</v>
+      </c>
+      <c r="X25">
+        <v>42</v>
+      </c>
+      <c r="Y25">
+        <v>1</v>
+      </c>
+      <c r="Z25">
+        <v>74</v>
+      </c>
+      <c r="AA25">
+        <v>6257</v>
+      </c>
+      <c r="AB25">
+        <v>86</v>
+      </c>
+      <c r="AC25">
+        <v>3.89</v>
+      </c>
+      <c r="AD25">
+        <v>1.3280000000000001</v>
+      </c>
+      <c r="AE25">
+        <v>9</v>
+      </c>
+      <c r="AF25">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AG25">
+        <v>2.9</v>
+      </c>
+      <c r="AH25">
+        <v>8</v>
+      </c>
+      <c r="AI25">
+        <v>2.71</v>
+      </c>
+      <c r="AJ25">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>342</v>
+      </c>
+      <c r="B26">
+        <v>21</v>
+      </c>
+      <c r="C26">
+        <v>29.6</v>
+      </c>
+      <c r="D26">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="E26">
+        <v>76</v>
+      </c>
+      <c r="F26">
+        <v>86</v>
+      </c>
+      <c r="G26">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="H26">
+        <v>4</v>
+      </c>
+      <c r="I26">
+        <v>162</v>
+      </c>
+      <c r="J26">
+        <v>162</v>
+      </c>
+      <c r="K26">
+        <v>160</v>
+      </c>
+      <c r="L26">
+        <v>2</v>
+      </c>
+      <c r="M26">
+        <v>13</v>
+      </c>
+      <c r="N26">
+        <v>2</v>
+      </c>
+      <c r="O26">
+        <v>41</v>
+      </c>
+      <c r="P26">
+        <v>1447.1</v>
+      </c>
+      <c r="Q26">
+        <v>1380</v>
+      </c>
+      <c r="R26">
+        <v>691</v>
+      </c>
+      <c r="S26">
+        <v>643</v>
+      </c>
+      <c r="T26">
+        <v>145</v>
+      </c>
+      <c r="U26">
+        <v>521</v>
+      </c>
+      <c r="V26">
+        <v>64</v>
+      </c>
+      <c r="W26">
+        <v>1256</v>
+      </c>
+      <c r="X26">
+        <v>50</v>
+      </c>
+      <c r="Y26">
+        <v>4</v>
+      </c>
+      <c r="Z26">
+        <v>60</v>
+      </c>
+      <c r="AA26">
+        <v>6163</v>
+      </c>
+      <c r="AB26">
+        <v>87</v>
+      </c>
+      <c r="AC26">
+        <v>3.8</v>
+      </c>
+      <c r="AD26">
+        <v>1.3129999999999999</v>
+      </c>
+      <c r="AE26">
+        <v>8.6</v>
+      </c>
+      <c r="AF26">
+        <v>0.9</v>
+      </c>
+      <c r="AG26">
+        <v>3.2</v>
+      </c>
+      <c r="AH26">
+        <v>7.8</v>
+      </c>
+      <c r="AI26">
+        <v>2.41</v>
+      </c>
+      <c r="AJ26">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>353</v>
+      </c>
+      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>26.9</v>
+      </c>
+      <c r="D27">
+        <v>3.68</v>
+      </c>
+      <c r="E27">
+        <v>97</v>
+      </c>
+      <c r="F27">
+        <v>65</v>
+      </c>
+      <c r="G27">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="H27">
+        <v>3.42</v>
+      </c>
+      <c r="I27">
+        <v>162</v>
+      </c>
+      <c r="J27">
+        <v>162</v>
+      </c>
+      <c r="K27">
+        <v>155</v>
+      </c>
+      <c r="L27">
+        <v>7</v>
+      </c>
+      <c r="M27">
+        <v>15</v>
+      </c>
+      <c r="N27">
+        <v>4</v>
+      </c>
+      <c r="O27">
+        <v>44</v>
+      </c>
+      <c r="P27">
+        <v>1459.2</v>
+      </c>
+      <c r="Q27">
+        <v>1366</v>
+      </c>
+      <c r="R27">
+        <v>596</v>
+      </c>
+      <c r="S27">
+        <v>555</v>
+      </c>
+      <c r="T27">
+        <v>112</v>
+      </c>
+      <c r="U27">
+        <v>451</v>
+      </c>
+      <c r="V27">
+        <v>26</v>
+      </c>
+      <c r="W27">
+        <v>1254</v>
+      </c>
+      <c r="X27">
+        <v>64</v>
+      </c>
+      <c r="Y27">
+        <v>1</v>
+      </c>
+      <c r="Z27">
+        <v>33</v>
+      </c>
+      <c r="AA27">
+        <v>6104</v>
+      </c>
+      <c r="AB27">
+        <v>110</v>
+      </c>
+      <c r="AC27">
+        <v>3.39</v>
+      </c>
+      <c r="AD27">
+        <v>1.2450000000000001</v>
+      </c>
+      <c r="AE27">
+        <v>8.4</v>
+      </c>
+      <c r="AF27">
+        <v>0.7</v>
+      </c>
+      <c r="AG27">
+        <v>2.8</v>
+      </c>
+      <c r="AH27">
+        <v>7.7</v>
+      </c>
+      <c r="AI27">
+        <v>2.78</v>
+      </c>
+      <c r="AJ27">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>364</v>
+      </c>
+      <c r="B28">
+        <v>21</v>
+      </c>
+      <c r="C28">
+        <v>29</v>
+      </c>
+      <c r="D28">
+        <v>3.96</v>
+      </c>
+      <c r="E28">
+        <v>92</v>
+      </c>
+      <c r="F28">
+        <v>71</v>
+      </c>
+      <c r="G28">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="H28">
+        <v>3.74</v>
+      </c>
+      <c r="I28">
+        <v>163</v>
+      </c>
+      <c r="J28">
+        <v>163</v>
+      </c>
+      <c r="K28">
+        <v>154</v>
+      </c>
+      <c r="L28">
+        <v>9</v>
+      </c>
+      <c r="M28">
+        <v>17</v>
+      </c>
+      <c r="N28">
+        <v>3</v>
+      </c>
+      <c r="O28">
+        <v>42</v>
+      </c>
+      <c r="P28">
+        <v>1464</v>
+      </c>
+      <c r="Q28">
+        <v>1315</v>
+      </c>
+      <c r="R28">
+        <v>646</v>
+      </c>
+      <c r="S28">
+        <v>608</v>
+      </c>
+      <c r="T28">
+        <v>153</v>
+      </c>
+      <c r="U28">
+        <v>482</v>
+      </c>
+      <c r="V28">
+        <v>38</v>
+      </c>
+      <c r="W28">
+        <v>1310</v>
+      </c>
+      <c r="X28">
+        <v>52</v>
+      </c>
+      <c r="Y28">
+        <v>6</v>
+      </c>
+      <c r="Z28">
+        <v>69</v>
+      </c>
+      <c r="AA28">
+        <v>6083</v>
+      </c>
+      <c r="AB28">
+        <v>103</v>
+      </c>
+      <c r="AC28">
+        <v>3.71</v>
+      </c>
+      <c r="AD28">
+        <v>1.2270000000000001</v>
+      </c>
+      <c r="AE28">
+        <v>8.1</v>
+      </c>
+      <c r="AF28">
+        <v>0.9</v>
+      </c>
+      <c r="AG28">
+        <v>3</v>
+      </c>
+      <c r="AH28">
+        <v>8.1</v>
+      </c>
+      <c r="AI28">
+        <v>2.72</v>
+      </c>
+      <c r="AJ28">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>378</v>
+      </c>
+      <c r="B29">
+        <v>25</v>
+      </c>
+      <c r="C29">
+        <v>27.9</v>
+      </c>
+      <c r="D29">
+        <v>3.9</v>
+      </c>
+      <c r="E29">
+        <v>91</v>
+      </c>
+      <c r="F29">
+        <v>72</v>
+      </c>
+      <c r="G29">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="H29">
+        <v>3.62</v>
+      </c>
+      <c r="I29">
+        <v>163</v>
+      </c>
+      <c r="J29">
+        <v>163</v>
+      </c>
+      <c r="K29">
+        <v>159</v>
+      </c>
+      <c r="L29">
+        <v>4</v>
+      </c>
+      <c r="M29">
+        <v>10</v>
+      </c>
+      <c r="N29">
+        <v>2</v>
+      </c>
+      <c r="O29">
+        <v>46</v>
+      </c>
+      <c r="P29">
+        <v>1463.1</v>
+      </c>
+      <c r="Q29">
+        <v>1370</v>
+      </c>
+      <c r="R29">
+        <v>636</v>
+      </c>
+      <c r="S29">
+        <v>589</v>
+      </c>
+      <c r="T29">
+        <v>157</v>
+      </c>
+      <c r="U29">
+        <v>498</v>
+      </c>
+      <c r="V29">
+        <v>35</v>
+      </c>
+      <c r="W29">
+        <v>1309</v>
+      </c>
+      <c r="X29">
+        <v>48</v>
+      </c>
+      <c r="Y29">
+        <v>5</v>
+      </c>
+      <c r="Z29">
+        <v>68</v>
+      </c>
+      <c r="AA29">
+        <v>6146</v>
+      </c>
+      <c r="AB29">
+        <v>114</v>
+      </c>
+      <c r="AC29">
+        <v>3.77</v>
+      </c>
+      <c r="AD29">
+        <v>1.2769999999999999</v>
+      </c>
+      <c r="AE29">
+        <v>8.4</v>
+      </c>
+      <c r="AF29">
+        <v>1</v>
+      </c>
+      <c r="AG29">
+        <v>3.1</v>
+      </c>
+      <c r="AH29">
+        <v>8.1</v>
+      </c>
+      <c r="AI29">
+        <v>2.63</v>
+      </c>
+      <c r="AJ29">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>390</v>
+      </c>
+      <c r="B30">
+        <v>31</v>
+      </c>
+      <c r="C30">
+        <v>30.9</v>
+      </c>
+      <c r="D30">
+        <v>4.67</v>
+      </c>
+      <c r="E30">
+        <v>74</v>
+      </c>
+      <c r="F30">
+        <v>88</v>
+      </c>
+      <c r="G30">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="H30">
+        <v>4.25</v>
+      </c>
+      <c r="I30">
+        <v>162</v>
+      </c>
+      <c r="J30">
+        <v>162</v>
+      </c>
+      <c r="K30">
+        <v>158</v>
+      </c>
+      <c r="L30">
+        <v>4</v>
+      </c>
+      <c r="M30">
+        <v>11</v>
+      </c>
+      <c r="N30">
+        <v>2</v>
+      </c>
+      <c r="O30">
+        <v>39</v>
+      </c>
+      <c r="P30">
+        <v>1452</v>
+      </c>
+      <c r="Q30">
+        <v>1451</v>
+      </c>
+      <c r="R30">
+        <v>756</v>
+      </c>
+      <c r="S30">
+        <v>685</v>
+      </c>
+      <c r="T30">
+        <v>195</v>
+      </c>
+      <c r="U30">
+        <v>500</v>
+      </c>
+      <c r="V30">
+        <v>33</v>
+      </c>
+      <c r="W30">
+        <v>1208</v>
+      </c>
+      <c r="X30">
+        <v>65</v>
+      </c>
+      <c r="Y30">
+        <v>7</v>
+      </c>
+      <c r="Z30">
+        <v>54</v>
+      </c>
+      <c r="AA30">
+        <v>6250</v>
+      </c>
+      <c r="AB30">
+        <v>97</v>
+      </c>
+      <c r="AC30">
+        <v>4.3</v>
+      </c>
+      <c r="AD30">
+        <v>1.3440000000000001</v>
+      </c>
+      <c r="AE30">
+        <v>9</v>
+      </c>
+      <c r="AF30">
+        <v>1.2</v>
+      </c>
+      <c r="AG30">
+        <v>3.1</v>
+      </c>
+      <c r="AH30">
+        <v>7.5</v>
+      </c>
+      <c r="AI30">
+        <v>2.42</v>
+      </c>
+      <c r="AJ30">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>403</v>
+      </c>
+      <c r="B31">
+        <v>21</v>
+      </c>
+      <c r="C31">
+        <v>27.7</v>
+      </c>
+      <c r="D31">
+        <v>3.86</v>
+      </c>
+      <c r="E31">
+        <v>86</v>
+      </c>
+      <c r="F31">
+        <v>76</v>
+      </c>
+      <c r="G31">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="H31">
+        <v>3.59</v>
+      </c>
+      <c r="I31">
+        <v>162</v>
+      </c>
+      <c r="J31">
+        <v>162</v>
+      </c>
+      <c r="K31">
+        <v>156</v>
+      </c>
+      <c r="L31">
+        <v>6</v>
+      </c>
+      <c r="M31">
+        <v>13</v>
+      </c>
+      <c r="N31">
+        <v>4</v>
+      </c>
+      <c r="O31">
+        <v>47</v>
+      </c>
+      <c r="P31">
+        <v>1445.2</v>
+      </c>
+      <c r="Q31">
+        <v>1367</v>
+      </c>
+      <c r="R31">
+        <v>626</v>
+      </c>
+      <c r="S31">
+        <v>576</v>
+      </c>
+      <c r="T31">
+        <v>142</v>
+      </c>
+      <c r="U31">
+        <v>405</v>
+      </c>
+      <c r="V31">
+        <v>17</v>
+      </c>
+      <c r="W31">
+        <v>1236</v>
+      </c>
+      <c r="X31">
+        <v>48</v>
+      </c>
+      <c r="Y31">
+        <v>8</v>
+      </c>
+      <c r="Z31">
+        <v>43</v>
+      </c>
+      <c r="AA31">
+        <v>6038</v>
+      </c>
+      <c r="AB31">
+        <v>106</v>
+      </c>
+      <c r="AC31">
+        <v>3.56</v>
+      </c>
+      <c r="AD31">
+        <v>1.226</v>
+      </c>
+      <c r="AE31">
+        <v>8.5</v>
+      </c>
+      <c r="AF31">
+        <v>0.9</v>
+      </c>
+      <c r="AG31">
+        <v>2.5</v>
+      </c>
+      <c r="AH31">
+        <v>7.7</v>
+      </c>
+      <c r="AI31">
+        <v>3.05</v>
+      </c>
+      <c r="AJ31">
+        <v>1075</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection sqref="A1:W31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>985</v>
+      </c>
+      <c r="B1" t="s">
+        <v>986</v>
+      </c>
+      <c r="C1" t="s">
+        <v>987</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>988</v>
+      </c>
+      <c r="F1" t="s">
+        <v>989</v>
+      </c>
+      <c r="G1" t="s">
+        <v>990</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>991</v>
+      </c>
+      <c r="J1" t="s">
+        <v>992</v>
+      </c>
+      <c r="K1" t="s">
+        <v>993</v>
+      </c>
+      <c r="L1" t="s">
+        <v>994</v>
+      </c>
+      <c r="M1" t="s">
+        <v>995</v>
+      </c>
+      <c r="N1" t="s">
+        <v>996</v>
+      </c>
+      <c r="O1" t="s">
+        <v>997</v>
+      </c>
+      <c r="P1" t="s">
+        <v>998</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>999</v>
+      </c>
+      <c r="R1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="S1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="T1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="U1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="V1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="W1" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D2">
+        <v>162</v>
+      </c>
+      <c r="E2">
+        <v>97</v>
+      </c>
+      <c r="F2">
+        <v>65</v>
+      </c>
+      <c r="G2">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="H2">
+        <v>4.8</v>
+      </c>
+      <c r="I2">
+        <v>3.7</v>
+      </c>
+      <c r="J2">
+        <v>1.2</v>
+      </c>
+      <c r="K2">
+        <v>-0.1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="N2">
+        <v>-4</v>
+      </c>
+      <c r="O2" s="2">
+        <v>43383</v>
+      </c>
+      <c r="P2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="R2" s="2">
+        <v>43257</v>
+      </c>
+      <c r="S2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="T2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="U2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="V2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="W2" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D3">
+        <v>162</v>
+      </c>
+      <c r="E3">
+        <v>97</v>
+      </c>
+      <c r="F3">
+        <v>65</v>
+      </c>
+      <c r="G3">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="H3">
+        <v>5.3</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <v>1.2</v>
+      </c>
+      <c r="K3">
+        <v>0.1</v>
+      </c>
+      <c r="L3">
+        <v>1.3</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1016</v>
+      </c>
+      <c r="N3">
+        <v>-3</v>
+      </c>
+      <c r="O3" s="2">
+        <v>43265</v>
+      </c>
+      <c r="P3" t="s">
+        <v>1017</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>1018</v>
+      </c>
+      <c r="R3" s="2">
+        <v>43379</v>
+      </c>
+      <c r="S3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="T3" t="s">
+        <v>1020</v>
+      </c>
+      <c r="U3" t="s">
+        <v>1021</v>
+      </c>
+      <c r="V3" t="s">
+        <v>1022</v>
+      </c>
+      <c r="W3" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D4">
+        <v>162</v>
+      </c>
+      <c r="E4">
+        <v>96</v>
+      </c>
+      <c r="F4">
+        <v>66</v>
+      </c>
+      <c r="G4">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="H4">
+        <v>4.2</v>
+      </c>
+      <c r="I4">
+        <v>3.4</v>
+      </c>
+      <c r="J4">
+        <v>0.9</v>
+      </c>
+      <c r="K4">
+        <v>-0.3</v>
+      </c>
+      <c r="L4">
+        <v>0.6</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1024</v>
+      </c>
+      <c r="N4">
+        <v>-2</v>
+      </c>
+      <c r="O4" s="2">
+        <v>43413</v>
+      </c>
+      <c r="P4" t="s">
+        <v>1025</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>1026</v>
+      </c>
+      <c r="R4" s="2">
+        <v>43439</v>
+      </c>
+      <c r="S4" t="s">
+        <v>1027</v>
+      </c>
+      <c r="T4" t="s">
+        <v>1028</v>
+      </c>
+      <c r="U4" t="s">
+        <v>1029</v>
+      </c>
+      <c r="V4" t="s">
+        <v>1030</v>
+      </c>
+      <c r="W4" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D5">
+        <v>162</v>
+      </c>
+      <c r="E5">
+        <v>96</v>
+      </c>
+      <c r="F5">
+        <v>66</v>
+      </c>
+      <c r="G5">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="H5">
+        <v>4.7</v>
+      </c>
+      <c r="I5">
+        <v>3.9</v>
+      </c>
+      <c r="J5">
+        <v>0.9</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0.8</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1032</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>43294</v>
+      </c>
+      <c r="P5" t="s">
+        <v>1033</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>1018</v>
+      </c>
+      <c r="R5" s="2">
+        <v>43287</v>
+      </c>
+      <c r="S5" t="s">
+        <v>1034</v>
+      </c>
+      <c r="T5" t="s">
+        <v>1035</v>
+      </c>
+      <c r="U5" t="s">
+        <v>1021</v>
+      </c>
+      <c r="V5" t="s">
+        <v>1036</v>
+      </c>
+      <c r="W5" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D6">
+        <v>162</v>
+      </c>
+      <c r="E6">
+        <v>94</v>
+      </c>
+      <c r="F6">
+        <v>68</v>
+      </c>
+      <c r="G6">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H6">
+        <v>3.9</v>
+      </c>
+      <c r="I6">
+        <v>3.6</v>
+      </c>
+      <c r="J6">
+        <v>0.4</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0.3</v>
+      </c>
+      <c r="M6" t="s">
+        <v>1038</v>
+      </c>
+      <c r="N6">
+        <v>6</v>
+      </c>
+      <c r="O6" s="2">
+        <v>43235</v>
+      </c>
+      <c r="P6" t="s">
+        <v>1039</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>1018</v>
+      </c>
+      <c r="R6" s="2">
+        <v>43352</v>
+      </c>
+      <c r="S6" t="s">
+        <v>1040</v>
+      </c>
+      <c r="T6" t="s">
+        <v>1041</v>
+      </c>
+      <c r="U6" t="s">
+        <v>1042</v>
+      </c>
+      <c r="V6" t="s">
+        <v>1036</v>
+      </c>
+      <c r="W6" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D7">
+        <v>162</v>
+      </c>
+      <c r="E7">
+        <v>93</v>
+      </c>
+      <c r="F7">
+        <v>69</v>
+      </c>
+      <c r="G7">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="H7">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I7">
+        <v>3.9</v>
+      </c>
+      <c r="J7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7" t="s">
+        <v>1044</v>
+      </c>
+      <c r="N7">
+        <v>-6</v>
+      </c>
+      <c r="O7" s="2">
+        <v>43442</v>
+      </c>
+      <c r="P7" t="s">
+        <v>1045</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>1046</v>
+      </c>
+      <c r="R7" s="2">
+        <v>43264</v>
+      </c>
+      <c r="S7" t="s">
+        <v>1047</v>
+      </c>
+      <c r="T7" t="s">
+        <v>1048</v>
+      </c>
+      <c r="U7" t="s">
+        <v>1049</v>
+      </c>
+      <c r="V7" t="s">
+        <v>1050</v>
+      </c>
+      <c r="W7" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D8">
+        <v>162</v>
+      </c>
+      <c r="E8">
+        <v>92</v>
+      </c>
+      <c r="F8">
+        <v>70</v>
+      </c>
+      <c r="G8">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>3.6</v>
+      </c>
+      <c r="J8">
+        <v>0.4</v>
+      </c>
+      <c r="K8">
+        <v>-0.2</v>
+      </c>
+      <c r="L8">
+        <v>0.2</v>
+      </c>
+      <c r="M8" t="s">
+        <v>1052</v>
+      </c>
+      <c r="N8">
+        <v>3</v>
+      </c>
+      <c r="O8" s="2">
+        <v>43442</v>
+      </c>
+      <c r="P8" t="s">
+        <v>1053</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>1054</v>
+      </c>
+      <c r="R8" s="2">
+        <v>43378</v>
+      </c>
+      <c r="S8" t="s">
+        <v>1055</v>
+      </c>
+      <c r="T8" t="s">
+        <v>1056</v>
+      </c>
+      <c r="U8" t="s">
+        <v>1057</v>
+      </c>
+      <c r="V8" t="s">
+        <v>1058</v>
+      </c>
+      <c r="W8" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D9">
+        <v>162</v>
+      </c>
+      <c r="E9">
+        <v>92</v>
+      </c>
+      <c r="F9">
+        <v>70</v>
+      </c>
+      <c r="G9">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="H9">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I9">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J9">
+        <v>0.5</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0.5</v>
+      </c>
+      <c r="M9" t="s">
+        <v>1060</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="O9" s="2">
+        <v>43413</v>
+      </c>
+      <c r="P9" t="s">
+        <v>1045</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>1061</v>
+      </c>
+      <c r="R9" s="2">
+        <v>43375</v>
+      </c>
+      <c r="S9" t="s">
+        <v>1062</v>
+      </c>
+      <c r="T9" t="s">
+        <v>1063</v>
+      </c>
+      <c r="U9" t="s">
+        <v>1064</v>
+      </c>
+      <c r="V9" t="s">
+        <v>1065</v>
+      </c>
+      <c r="W9" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>364</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D10">
+        <v>163</v>
+      </c>
+      <c r="E10">
+        <v>92</v>
+      </c>
+      <c r="F10">
+        <v>71</v>
+      </c>
+      <c r="G10">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="H10">
+        <v>4.3</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <v>0.3</v>
+      </c>
+      <c r="K10">
+        <v>0.1</v>
+      </c>
+      <c r="L10">
+        <v>0.5</v>
+      </c>
+      <c r="M10" t="s">
+        <v>1067</v>
+      </c>
+      <c r="N10">
+        <v>5</v>
+      </c>
+      <c r="O10" s="2">
+        <v>43442</v>
+      </c>
+      <c r="P10" t="s">
+        <v>1045</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>1068</v>
+      </c>
+      <c r="R10" s="2">
+        <v>43350</v>
+      </c>
+      <c r="S10" t="s">
+        <v>1069</v>
+      </c>
+      <c r="T10" t="s">
+        <v>1070</v>
+      </c>
+      <c r="U10" t="s">
+        <v>1071</v>
+      </c>
+      <c r="V10" t="s">
+        <v>1072</v>
+      </c>
+      <c r="W10" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>378</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D11">
+        <v>163</v>
+      </c>
+      <c r="E11">
+        <v>91</v>
+      </c>
+      <c r="F11">
+        <v>72</v>
+      </c>
+      <c r="G11">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="H11">
+        <v>4.5</v>
+      </c>
+      <c r="I11">
+        <v>3.9</v>
+      </c>
+      <c r="J11">
+        <v>0.6</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0.6</v>
+      </c>
+      <c r="M11" t="s">
+        <v>1073</v>
+      </c>
+      <c r="N11">
+        <v>-1</v>
+      </c>
+      <c r="O11" s="2">
+        <v>43383</v>
+      </c>
+      <c r="P11" t="s">
+        <v>1074</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>1054</v>
+      </c>
+      <c r="R11" s="2">
+        <v>43168</v>
+      </c>
+      <c r="S11" t="s">
+        <v>1027</v>
+      </c>
+      <c r="T11" t="s">
+        <v>1075</v>
+      </c>
+      <c r="U11" t="s">
+        <v>1076</v>
+      </c>
+      <c r="V11" t="s">
+        <v>1077</v>
+      </c>
+      <c r="W11" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D12">
+        <v>162</v>
+      </c>
+      <c r="E12">
+        <v>90</v>
+      </c>
+      <c r="F12">
+        <v>72</v>
+      </c>
+      <c r="G12">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="H12">
+        <v>4.3</v>
+      </c>
+      <c r="I12">
+        <v>3.6</v>
+      </c>
+      <c r="J12">
+        <v>0.7</v>
+      </c>
+      <c r="K12">
+        <v>-0.1</v>
+      </c>
+      <c r="L12">
+        <v>0.6</v>
+      </c>
+      <c r="M12" t="s">
+        <v>1079</v>
+      </c>
+      <c r="N12">
+        <v>-3</v>
+      </c>
+      <c r="O12" s="2">
+        <v>43413</v>
+      </c>
+      <c r="P12" t="s">
+        <v>1080</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>1068</v>
+      </c>
+      <c r="R12" s="2">
+        <v>43356</v>
+      </c>
+      <c r="S12" t="s">
+        <v>1081</v>
+      </c>
+      <c r="T12" t="s">
+        <v>1082</v>
+      </c>
+      <c r="U12" t="s">
+        <v>1083</v>
+      </c>
+      <c r="V12" t="s">
+        <v>1084</v>
+      </c>
+      <c r="W12" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>403</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D13">
+        <v>162</v>
+      </c>
+      <c r="E13">
+        <v>86</v>
+      </c>
+      <c r="F13">
+        <v>76</v>
+      </c>
+      <c r="G13">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <v>3.9</v>
+      </c>
+      <c r="J13">
+        <v>0.2</v>
+      </c>
+      <c r="K13">
+        <v>-0.2</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" t="s">
+        <v>1086</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
+      </c>
+      <c r="O13" s="2">
+        <v>43413</v>
+      </c>
+      <c r="P13" t="s">
+        <v>1053</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>1087</v>
+      </c>
+      <c r="R13" s="2">
+        <v>43289</v>
+      </c>
+      <c r="S13" t="s">
+        <v>1088</v>
+      </c>
+      <c r="T13" t="s">
+        <v>1089</v>
+      </c>
+      <c r="U13" t="s">
+        <v>1090</v>
+      </c>
+      <c r="V13" t="s">
+        <v>1091</v>
+      </c>
+      <c r="W13" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>185</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D14">
+        <v>162</v>
+      </c>
+      <c r="E14">
+        <v>86</v>
+      </c>
+      <c r="F14">
+        <v>76</v>
+      </c>
+      <c r="G14">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>3.7</v>
+      </c>
+      <c r="J14">
+        <v>0.3</v>
+      </c>
+      <c r="K14">
+        <v>0.1</v>
+      </c>
+      <c r="L14">
+        <v>0.4</v>
+      </c>
+      <c r="M14" t="s">
+        <v>1093</v>
+      </c>
+      <c r="N14">
+        <v>-1</v>
+      </c>
+      <c r="O14" s="2">
+        <v>43354</v>
+      </c>
+      <c r="P14" t="s">
+        <v>1018</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>1046</v>
+      </c>
+      <c r="R14" s="2">
+        <v>43408</v>
+      </c>
+      <c r="S14" t="s">
+        <v>1094</v>
+      </c>
+      <c r="T14" t="s">
+        <v>1095</v>
+      </c>
+      <c r="U14" t="s">
+        <v>1096</v>
+      </c>
+      <c r="V14" t="s">
+        <v>1097</v>
+      </c>
+      <c r="W14" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>270</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D15">
+        <v>162</v>
+      </c>
+      <c r="E15">
+        <v>85</v>
+      </c>
+      <c r="F15">
+        <v>77</v>
+      </c>
+      <c r="G15">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J15">
+        <v>-0.1</v>
+      </c>
+      <c r="K15">
+        <v>0.2</v>
+      </c>
+      <c r="L15">
+        <v>0.1</v>
+      </c>
+      <c r="M15" t="s">
+        <v>1099</v>
+      </c>
+      <c r="N15">
+        <v>6</v>
+      </c>
+      <c r="O15" s="2">
+        <v>43354</v>
+      </c>
+      <c r="P15" t="s">
+        <v>1100</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>1087</v>
+      </c>
+      <c r="R15" s="2">
+        <v>43257</v>
+      </c>
+      <c r="S15" t="s">
+        <v>1101</v>
+      </c>
+      <c r="T15" t="s">
+        <v>1102</v>
+      </c>
+      <c r="U15" t="s">
+        <v>1103</v>
+      </c>
+      <c r="V15" t="s">
+        <v>1104</v>
+      </c>
+      <c r="W15" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D16">
+        <v>162</v>
+      </c>
+      <c r="E16">
+        <v>85</v>
+      </c>
+      <c r="F16">
+        <v>77</v>
+      </c>
+      <c r="G16">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="H16">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I16">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J16">
+        <v>0.2</v>
+      </c>
+      <c r="K16">
+        <v>0.2</v>
+      </c>
+      <c r="L16">
+        <v>0.4</v>
+      </c>
+      <c r="M16" t="s">
+        <v>1106</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2">
+        <v>43413</v>
+      </c>
+      <c r="P16" t="s">
+        <v>1100</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>1087</v>
+      </c>
+      <c r="R16" s="2">
+        <v>43319</v>
+      </c>
+      <c r="S16" t="s">
+        <v>1107</v>
+      </c>
+      <c r="T16" t="s">
+        <v>1108</v>
+      </c>
+      <c r="U16" t="s">
+        <v>1109</v>
+      </c>
+      <c r="V16" t="s">
+        <v>1110</v>
+      </c>
+      <c r="W16" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D17">
+        <v>162</v>
+      </c>
+      <c r="E17">
+        <v>81</v>
+      </c>
+      <c r="F17">
+        <v>81</v>
+      </c>
+      <c r="G17">
+        <v>0.5</v>
+      </c>
+      <c r="H17">
+        <v>4.2</v>
+      </c>
+      <c r="I17">
+        <v>4.3</v>
+      </c>
+      <c r="J17">
+        <v>-0.1</v>
+      </c>
+      <c r="K17">
+        <v>-0.1</v>
+      </c>
+      <c r="L17">
+        <v>-0.2</v>
+      </c>
+      <c r="M17" t="s">
+        <v>1112</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17" s="2">
+        <v>43413</v>
+      </c>
+      <c r="P17" t="s">
+        <v>1054</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>1113</v>
+      </c>
+      <c r="R17" s="2">
+        <v>43329</v>
+      </c>
+      <c r="S17" t="s">
+        <v>1114</v>
+      </c>
+      <c r="T17" t="s">
+        <v>1115</v>
+      </c>
+      <c r="U17" t="s">
+        <v>1116</v>
+      </c>
+      <c r="V17" t="s">
+        <v>1117</v>
+      </c>
+      <c r="W17" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>196</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D18">
+        <v>162</v>
+      </c>
+      <c r="E18">
+        <v>78</v>
+      </c>
+      <c r="F18">
+        <v>84</v>
+      </c>
+      <c r="G18">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="H18">
+        <v>4.5</v>
+      </c>
+      <c r="I18">
+        <v>4.5</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0.1</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18" t="s">
+        <v>1119</v>
+      </c>
+      <c r="N18">
+        <v>-3</v>
+      </c>
+      <c r="O18" s="2">
+        <v>43383</v>
+      </c>
+      <c r="P18" t="s">
+        <v>1087</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>1087</v>
+      </c>
+      <c r="R18" s="2">
+        <v>43320</v>
+      </c>
+      <c r="S18" t="s">
+        <v>1120</v>
+      </c>
+      <c r="T18" t="s">
+        <v>1121</v>
+      </c>
+      <c r="U18" t="s">
+        <v>1122</v>
+      </c>
+      <c r="V18" t="s">
+        <v>1123</v>
+      </c>
+      <c r="W18" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>342</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D19">
+        <v>162</v>
+      </c>
+      <c r="E19">
+        <v>76</v>
+      </c>
+      <c r="F19">
+        <v>86</v>
+      </c>
+      <c r="G19">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="H19">
+        <v>3.9</v>
+      </c>
+      <c r="I19">
+        <v>4.3</v>
+      </c>
+      <c r="J19">
+        <v>-0.4</v>
+      </c>
+      <c r="K19">
+        <v>-0.1</v>
+      </c>
+      <c r="L19">
+        <v>-0.5</v>
+      </c>
+      <c r="M19" t="s">
+        <v>1125</v>
+      </c>
+      <c r="N19">
+        <v>2</v>
+      </c>
+      <c r="O19" s="2">
+        <v>43265</v>
+      </c>
+      <c r="P19" t="s">
+        <v>1126</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>1127</v>
+      </c>
+      <c r="R19" s="2">
+        <v>43322</v>
+      </c>
+      <c r="S19" t="s">
+        <v>1128</v>
+      </c>
+      <c r="T19" t="s">
+        <v>1129</v>
+      </c>
+      <c r="U19" t="s">
+        <v>1130</v>
+      </c>
+      <c r="V19" t="s">
+        <v>1131</v>
+      </c>
+      <c r="W19" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>318</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D20">
+        <v>162</v>
+      </c>
+      <c r="E20">
+        <v>76</v>
+      </c>
+      <c r="F20">
+        <v>86</v>
+      </c>
+      <c r="G20">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="H20">
+        <v>3.8</v>
+      </c>
+      <c r="I20">
+        <v>4.3</v>
+      </c>
+      <c r="J20">
+        <v>-0.5</v>
+      </c>
+      <c r="K20">
+        <v>-0.1</v>
+      </c>
+      <c r="L20">
+        <v>-0.6</v>
+      </c>
+      <c r="M20" t="s">
+        <v>1133</v>
+      </c>
+      <c r="N20">
+        <v>4</v>
+      </c>
+      <c r="O20" s="2">
+        <v>43324</v>
+      </c>
+      <c r="P20" t="s">
+        <v>1054</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>1134</v>
+      </c>
+      <c r="R20" s="2">
+        <v>43319</v>
+      </c>
+      <c r="S20" t="s">
+        <v>1088</v>
+      </c>
+      <c r="T20" t="s">
+        <v>1135</v>
+      </c>
+      <c r="U20" t="s">
+        <v>1136</v>
+      </c>
+      <c r="V20" t="s">
+        <v>1137</v>
+      </c>
+      <c r="W20" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>260</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D21">
+        <v>162</v>
+      </c>
+      <c r="E21">
+        <v>74</v>
+      </c>
+      <c r="F21">
+        <v>88</v>
+      </c>
+      <c r="G21">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="H21">
+        <v>3.8</v>
+      </c>
+      <c r="I21">
+        <v>4.2</v>
+      </c>
+      <c r="J21">
+        <v>-0.4</v>
+      </c>
+      <c r="K21">
+        <v>-0.2</v>
+      </c>
+      <c r="L21">
+        <v>-0.6</v>
+      </c>
+      <c r="M21" t="s">
+        <v>1125</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21" s="2">
+        <v>43413</v>
+      </c>
+      <c r="P21" t="s">
+        <v>1139</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>1061</v>
+      </c>
+      <c r="R21" s="2">
+        <v>43324</v>
+      </c>
+      <c r="S21" t="s">
+        <v>1140</v>
+      </c>
+      <c r="T21" t="s">
+        <v>1141</v>
+      </c>
+      <c r="U21" t="s">
+        <v>1142</v>
+      </c>
+      <c r="V21" t="s">
+        <v>1143</v>
+      </c>
+      <c r="W21" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>236</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D22">
+        <v>162</v>
+      </c>
+      <c r="E22">
+        <v>74</v>
+      </c>
+      <c r="F22">
+        <v>88</v>
+      </c>
+      <c r="G22">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="H22">
+        <v>4</v>
+      </c>
+      <c r="I22">
+        <v>4.2</v>
+      </c>
+      <c r="J22">
+        <v>-0.3</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>-0.3</v>
+      </c>
+      <c r="M22" t="s">
+        <v>1145</v>
+      </c>
+      <c r="N22">
+        <v>-2</v>
+      </c>
+      <c r="O22" s="2">
+        <v>43265</v>
+      </c>
+      <c r="P22" t="s">
+        <v>1146</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>1146</v>
+      </c>
+      <c r="R22" s="2">
+        <v>43258</v>
+      </c>
+      <c r="S22" t="s">
+        <v>1147</v>
+      </c>
+      <c r="T22" t="s">
+        <v>1148</v>
+      </c>
+      <c r="U22" t="s">
+        <v>1149</v>
+      </c>
+      <c r="V22" t="s">
+        <v>1150</v>
+      </c>
+      <c r="W22" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>390</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D23">
+        <v>162</v>
+      </c>
+      <c r="E23">
+        <v>74</v>
+      </c>
+      <c r="F23">
+        <v>88</v>
+      </c>
+      <c r="G23">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="H23">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I23">
+        <v>4.7</v>
+      </c>
+      <c r="J23">
+        <v>-0.3</v>
+      </c>
+      <c r="K23">
+        <v>0.2</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23" t="s">
+        <v>1152</v>
+      </c>
+      <c r="N23">
+        <v>-3</v>
+      </c>
+      <c r="O23" s="2">
+        <v>43413</v>
+      </c>
+      <c r="P23" t="s">
+        <v>1026</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>1153</v>
+      </c>
+      <c r="R23" s="2">
+        <v>43321</v>
+      </c>
+      <c r="S23" t="s">
+        <v>1154</v>
+      </c>
+      <c r="T23" t="s">
+        <v>1155</v>
+      </c>
+      <c r="U23" t="s">
+        <v>1156</v>
+      </c>
+      <c r="V23" t="s">
+        <v>1157</v>
+      </c>
+      <c r="W23" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D24">
+        <v>162</v>
+      </c>
+      <c r="E24">
+        <v>74</v>
+      </c>
+      <c r="F24">
+        <v>88</v>
+      </c>
+      <c r="G24">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="H24">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I24">
+        <v>4.7</v>
+      </c>
+      <c r="J24">
+        <v>-0.3</v>
+      </c>
+      <c r="K24">
+        <v>-0.1</v>
+      </c>
+      <c r="L24">
+        <v>-0.5</v>
+      </c>
+      <c r="M24" t="s">
+        <v>1145</v>
+      </c>
+      <c r="N24">
+        <v>-2</v>
+      </c>
+      <c r="O24" s="2">
+        <v>43235</v>
+      </c>
+      <c r="P24" t="s">
+        <v>1054</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>1159</v>
+      </c>
+      <c r="R24" s="2">
+        <v>43260</v>
+      </c>
+      <c r="S24" t="s">
+        <v>1142</v>
+      </c>
+      <c r="T24" t="s">
+        <v>1160</v>
+      </c>
+      <c r="U24" t="s">
+        <v>1161</v>
+      </c>
+      <c r="V24" t="s">
+        <v>1162</v>
+      </c>
+      <c r="W24" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>294</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D25">
+        <v>162</v>
+      </c>
+      <c r="E25">
+        <v>73</v>
+      </c>
+      <c r="F25">
+        <v>89</v>
+      </c>
+      <c r="G25">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="H25">
+        <v>3.8</v>
+      </c>
+      <c r="I25">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J25">
+        <v>-0.9</v>
+      </c>
+      <c r="K25">
+        <v>-0.1</v>
+      </c>
+      <c r="L25">
+        <v>-0.9</v>
+      </c>
+      <c r="M25" t="s">
+        <v>1164</v>
+      </c>
+      <c r="N25">
+        <v>7</v>
+      </c>
+      <c r="O25" s="2">
+        <v>43294</v>
+      </c>
+      <c r="P25" t="s">
+        <v>1009</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>1165</v>
+      </c>
+      <c r="R25" s="2">
+        <v>43258</v>
+      </c>
+      <c r="S25" t="s">
+        <v>1128</v>
+      </c>
+      <c r="T25" t="s">
+        <v>1166</v>
+      </c>
+      <c r="U25" t="s">
+        <v>1019</v>
+      </c>
+      <c r="V25" t="s">
+        <v>1167</v>
+      </c>
+      <c r="W25" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>331</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D26">
+        <v>162</v>
+      </c>
+      <c r="E26">
+        <v>71</v>
+      </c>
+      <c r="F26">
+        <v>91</v>
+      </c>
+      <c r="G26">
+        <v>0.438</v>
+      </c>
+      <c r="H26">
+        <v>3.9</v>
+      </c>
+      <c r="I26">
+        <v>4.7</v>
+      </c>
+      <c r="J26">
+        <v>-0.8</v>
+      </c>
+      <c r="K26">
+        <v>0.1</v>
+      </c>
+      <c r="L26">
+        <v>-0.7</v>
+      </c>
+      <c r="M26" t="s">
+        <v>1169</v>
+      </c>
+      <c r="N26">
+        <v>4</v>
+      </c>
+      <c r="O26" s="2">
+        <v>43324</v>
+      </c>
+      <c r="P26" t="s">
+        <v>1113</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>1170</v>
+      </c>
+      <c r="R26" s="2">
+        <v>43266</v>
+      </c>
+      <c r="S26" t="s">
+        <v>1171</v>
+      </c>
+      <c r="T26" t="s">
+        <v>1141</v>
+      </c>
+      <c r="U26" t="s">
+        <v>1172</v>
+      </c>
+      <c r="V26" t="s">
+        <v>1173</v>
+      </c>
+      <c r="W26" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>249</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D27">
+        <v>162</v>
+      </c>
+      <c r="E27">
+        <v>66</v>
+      </c>
+      <c r="F27">
+        <v>96</v>
+      </c>
+      <c r="G27">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="H27">
+        <v>3.8</v>
+      </c>
+      <c r="I27">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J27">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="K27">
+        <v>0.2</v>
+      </c>
+      <c r="L27">
+        <v>-0.9</v>
+      </c>
+      <c r="M27" t="s">
+        <v>1175</v>
+      </c>
+      <c r="N27">
+        <v>3</v>
+      </c>
+      <c r="O27" s="2">
+        <v>43324</v>
+      </c>
+      <c r="P27" t="s">
+        <v>1176</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>1153</v>
+      </c>
+      <c r="R27" s="2">
+        <v>43350</v>
+      </c>
+      <c r="S27" t="s">
+        <v>1177</v>
+      </c>
+      <c r="T27" t="s">
+        <v>1178</v>
+      </c>
+      <c r="U27" t="s">
+        <v>1179</v>
+      </c>
+      <c r="V27" t="s">
+        <v>1180</v>
+      </c>
+      <c r="W27" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D28">
+        <v>162</v>
+      </c>
+      <c r="E28">
+        <v>66</v>
+      </c>
+      <c r="F28">
+        <v>96</v>
+      </c>
+      <c r="G28">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="H28">
+        <v>3.7</v>
+      </c>
+      <c r="I28">
+        <v>4.3</v>
+      </c>
+      <c r="J28">
+        <v>-0.5</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>-0.5</v>
+      </c>
+      <c r="M28" t="s">
+        <v>1182</v>
+      </c>
+      <c r="N28">
+        <v>-5</v>
+      </c>
+      <c r="O28" s="2">
+        <v>43294</v>
+      </c>
+      <c r="P28" t="s">
+        <v>1134</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>1170</v>
+      </c>
+      <c r="R28" s="2">
+        <v>43287</v>
+      </c>
+      <c r="S28" t="s">
+        <v>1161</v>
+      </c>
+      <c r="T28" t="s">
+        <v>1183</v>
+      </c>
+      <c r="U28" t="s">
+        <v>1184</v>
+      </c>
+      <c r="V28" t="s">
+        <v>1185</v>
+      </c>
+      <c r="W28" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D29">
+        <v>162</v>
+      </c>
+      <c r="E29">
+        <v>63</v>
+      </c>
+      <c r="F29">
+        <v>99</v>
+      </c>
+      <c r="G29">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="H29">
+        <v>3.7</v>
+      </c>
+      <c r="I29">
+        <v>4.5</v>
+      </c>
+      <c r="J29">
+        <v>-0.8</v>
+      </c>
+      <c r="K29">
+        <v>0.1</v>
+      </c>
+      <c r="L29">
+        <v>-0.6</v>
+      </c>
+      <c r="M29" t="s">
+        <v>1169</v>
+      </c>
+      <c r="N29">
+        <v>-4</v>
+      </c>
+      <c r="O29" s="2">
+        <v>43324</v>
+      </c>
+      <c r="P29" t="s">
+        <v>1146</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>1187</v>
+      </c>
+      <c r="R29" s="2">
+        <v>43327</v>
+      </c>
+      <c r="S29" t="s">
+        <v>1188</v>
+      </c>
+      <c r="T29" t="s">
+        <v>1189</v>
+      </c>
+      <c r="U29" t="s">
+        <v>1190</v>
+      </c>
+      <c r="V29" t="s">
+        <v>1191</v>
+      </c>
+      <c r="W29" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>220</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D30">
+        <v>162</v>
+      </c>
+      <c r="E30">
+        <v>62</v>
+      </c>
+      <c r="F30">
+        <v>100</v>
+      </c>
+      <c r="G30">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="H30">
+        <v>3.2</v>
+      </c>
+      <c r="I30">
+        <v>4</v>
+      </c>
+      <c r="J30">
+        <v>-0.8</v>
+      </c>
+      <c r="K30">
+        <v>-0.1</v>
+      </c>
+      <c r="L30">
+        <v>-0.9</v>
+      </c>
+      <c r="M30" t="s">
+        <v>1193</v>
+      </c>
+      <c r="N30">
+        <v>-2</v>
+      </c>
+      <c r="O30" s="2">
+        <v>43354</v>
+      </c>
+      <c r="P30" t="s">
+        <v>1113</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>1187</v>
+      </c>
+      <c r="R30" s="2">
+        <v>43294</v>
+      </c>
+      <c r="S30" t="s">
+        <v>1194</v>
+      </c>
+      <c r="T30" t="s">
+        <v>1195</v>
+      </c>
+      <c r="U30" t="s">
+        <v>1172</v>
+      </c>
+      <c r="V30" t="s">
+        <v>1196</v>
+      </c>
+      <c r="W30" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>173</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D31">
+        <v>162</v>
+      </c>
+      <c r="E31">
+        <v>51</v>
+      </c>
+      <c r="F31">
+        <v>111</v>
+      </c>
+      <c r="G31">
+        <v>0.315</v>
+      </c>
+      <c r="H31">
+        <v>3.8</v>
+      </c>
+      <c r="I31">
+        <v>5.2</v>
+      </c>
+      <c r="J31">
+        <v>-1.5</v>
+      </c>
+      <c r="K31">
+        <v>0.2</v>
+      </c>
+      <c r="L31">
+        <v>-1.2</v>
+      </c>
+      <c r="M31" t="s">
+        <v>1197</v>
+      </c>
+      <c r="N31">
+        <v>-6</v>
+      </c>
+      <c r="O31" s="2">
+        <v>43324</v>
+      </c>
+      <c r="P31" t="s">
+        <v>1198</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>1199</v>
+      </c>
+      <c r="R31" s="2">
+        <v>43198</v>
+      </c>
+      <c r="S31" t="s">
+        <v>1200</v>
+      </c>
+      <c r="T31" t="s">
+        <v>1201</v>
+      </c>
+      <c r="U31" t="s">
+        <v>1202</v>
+      </c>
+      <c r="V31" t="s">
+        <v>1203</v>
+      </c>
+      <c r="W31" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>